--- a/InputData/BookingData.xlsx
+++ b/InputData/BookingData.xlsx
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1128">
   <si>
     <t>ID</t>
   </si>
@@ -3732,21 +3732,6 @@
     <t>21-Jun-2023</t>
   </si>
   <si>
-    <t>890-363-6027</t>
-  </si>
-  <si>
-    <t>232-364-9631</t>
-  </si>
-  <si>
-    <t>232-365-2587</t>
-  </si>
-  <si>
-    <t>458-366-3654</t>
-  </si>
-  <si>
-    <t>258-367-3657</t>
-  </si>
-  <si>
     <t>125-368-2568</t>
   </si>
   <si>
@@ -3762,24 +3747,6 @@
     <t>232-372-956</t>
   </si>
   <si>
-    <t>25044</t>
-  </si>
-  <si>
-    <t>43045</t>
-  </si>
-  <si>
-    <t>42646</t>
-  </si>
-  <si>
-    <t>477147</t>
-  </si>
-  <si>
-    <t>457548</t>
-  </si>
-  <si>
-    <t>426549</t>
-  </si>
-  <si>
     <t>4523850</t>
   </si>
   <si>
@@ -3801,24 +3768,6 @@
     <t>451856</t>
   </si>
   <si>
-    <t>820043</t>
-  </si>
-  <si>
-    <t>180044</t>
-  </si>
-  <si>
-    <t>535345</t>
-  </si>
-  <si>
-    <t>166246</t>
-  </si>
-  <si>
-    <t>1HG847</t>
-  </si>
-  <si>
-    <t>1267948</t>
-  </si>
-  <si>
     <t>AAS1249</t>
   </si>
   <si>
@@ -3843,24 +3792,6 @@
     <t>BB30056</t>
   </si>
   <si>
-    <t>ICICI0000885</t>
-  </si>
-  <si>
-    <t>ICICI0000886</t>
-  </si>
-  <si>
-    <t>ICICI0000887</t>
-  </si>
-  <si>
-    <t>ICICI0000688</t>
-  </si>
-  <si>
-    <t>ICICI00063589</t>
-  </si>
-  <si>
-    <t>ICICI00072390</t>
-  </si>
-  <si>
     <t>ICICI00066791</t>
   </si>
   <si>
@@ -3882,24 +3813,6 @@
     <t>ICICI0008898</t>
   </si>
   <si>
-    <t>833801</t>
-  </si>
-  <si>
-    <t>353402</t>
-  </si>
-  <si>
-    <t>345803</t>
-  </si>
-  <si>
-    <t>324604</t>
-  </si>
-  <si>
-    <t>323505</t>
-  </si>
-  <si>
-    <t>396706</t>
-  </si>
-  <si>
     <t>353307</t>
   </si>
   <si>
@@ -3924,33 +3837,6 @@
     <t>3463514</t>
   </si>
   <si>
-    <t>PF/RD/663/2023</t>
-  </si>
-  <si>
-    <t>PF/HE/664/2023</t>
-  </si>
-  <si>
-    <t>PF/SA/665/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/666/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/667/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/6682023</t>
-  </si>
-  <si>
-    <t>PF/PR/669/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/670/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/671/2023</t>
-  </si>
-  <si>
     <t>PF/PR/672/2023</t>
   </si>
   <si>
@@ -3966,22 +3852,121 @@
     <t>PF/AP/676/2023</t>
   </si>
   <si>
-    <t>CHN/BKG/AFE/00174/23-24</t>
-  </si>
-  <si>
-    <t>MUM/BKG/AEC/00012/2122-49</t>
-  </si>
-  <si>
-    <t>CHN/BKG/AFI/00175/23-24</t>
-  </si>
-  <si>
-    <t>MUM/BKG/AFIC/00014/2122-14</t>
-  </si>
-  <si>
-    <t>MUM/BKG/CS/00033/23-24</t>
-  </si>
-  <si>
-    <t>MUM/BKG/ITCT/00034/23-24</t>
+    <t>232-372-2587</t>
+  </si>
+  <si>
+    <t>458-373-3654</t>
+  </si>
+  <si>
+    <t>258-374-3657</t>
+  </si>
+  <si>
+    <t>42652</t>
+  </si>
+  <si>
+    <t>477153</t>
+  </si>
+  <si>
+    <t>457554</t>
+  </si>
+  <si>
+    <t>426555</t>
+  </si>
+  <si>
+    <t>535352</t>
+  </si>
+  <si>
+    <t>166253</t>
+  </si>
+  <si>
+    <t>1HG854</t>
+  </si>
+  <si>
+    <t>1267955</t>
+  </si>
+  <si>
+    <t>ICICI0000892</t>
+  </si>
+  <si>
+    <t>ICICI0000693</t>
+  </si>
+  <si>
+    <t>ICICI00063594</t>
+  </si>
+  <si>
+    <t>ICICI00072395</t>
+  </si>
+  <si>
+    <t>345808</t>
+  </si>
+  <si>
+    <t>324609</t>
+  </si>
+  <si>
+    <t>323510</t>
+  </si>
+  <si>
+    <t>396711</t>
+  </si>
+  <si>
+    <t>PF/PR/673/2023</t>
+  </si>
+  <si>
+    <t>PF/SA/672/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/674/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/675/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/676/2023</t>
+  </si>
+  <si>
+    <t>890-374-6027</t>
+  </si>
+  <si>
+    <t>232-375-9631</t>
+  </si>
+  <si>
+    <t>29-Jun-2023</t>
+  </si>
+  <si>
+    <t>25054</t>
+  </si>
+  <si>
+    <t>43055</t>
+  </si>
+  <si>
+    <t>820054</t>
+  </si>
+  <si>
+    <t>180055</t>
+  </si>
+  <si>
+    <t>ICICI0000894</t>
+  </si>
+  <si>
+    <t>ICICI0000895</t>
+  </si>
+  <si>
+    <t>833808</t>
+  </si>
+  <si>
+    <t>353409</t>
+  </si>
+  <si>
+    <t>PF/RD/674/2023</t>
+  </si>
+  <si>
+    <t>PF/HE/675/2023</t>
+  </si>
+  <si>
+    <t>CHN/BKG/AFE/00179/23-24</t>
+  </si>
+  <si>
+    <t>MUM/BKG/AEC/00012/2122-51</t>
   </si>
 </sst>
 </file>
@@ -7465,7 +7450,7 @@
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8247,30 +8232,30 @@
         <v>1</v>
       </c>
       <c r="D8" s="717" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E8" s="215" t="s">
         <v>391</v>
       </c>
       <c r="F8" s="394" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="399"/>
       <c r="I8" s="451" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
       <c r="J8" s="219" t="s">
         <v>393</v>
       </c>
       <c r="K8" s="403" t="s">
-        <v>1045</v>
+        <v>1115</v>
       </c>
       <c r="L8" s="404" t="s">
         <v>394</v>
       </c>
       <c r="M8" s="451" t="s">
-        <v>1059</v>
+        <v>1116</v>
       </c>
       <c r="N8" s="220" t="s">
         <v>562</v>
@@ -8282,7 +8267,7 @@
         <v>409</v>
       </c>
       <c r="Q8" s="451" t="s">
-        <v>1072</v>
+        <v>1118</v>
       </c>
       <c r="R8" s="465" t="s">
         <v>727</v>
@@ -8294,7 +8279,7 @@
         <v>562</v>
       </c>
       <c r="U8" s="426" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="V8" s="425" t="s">
         <v>854</v>
@@ -8306,7 +8291,7 @@
         <v>396</v>
       </c>
       <c r="Y8" s="434" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="Z8" s="435" t="s">
         <v>397</v>
@@ -8321,7 +8306,7 @@
         <v>561</v>
       </c>
       <c r="AD8" s="450" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="AE8" s="452"/>
       <c r="AF8" s="451" t="s">
@@ -8415,20 +8400,20 @@
         <v>410</v>
       </c>
       <c r="D9" s="714" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E9" s="122" t="s">
         <v>391</v>
       </c>
       <c r="F9" s="396" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G9" s="289"/>
       <c r="H9" s="401" t="s">
         <v>574</v>
       </c>
       <c r="I9" s="398" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>393</v>
@@ -8440,7 +8425,7 @@
         <v>394</v>
       </c>
       <c r="M9" s="411" t="s">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="N9" s="291" t="s">
         <v>562</v>
@@ -8452,7 +8437,7 @@
         <v>409</v>
       </c>
       <c r="Q9" s="411" t="s">
-        <v>1073</v>
+        <v>1119</v>
       </c>
       <c r="R9" s="421" t="s">
         <v>395</v>
@@ -8464,7 +8449,7 @@
         <v>562</v>
       </c>
       <c r="U9" s="429" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="V9" s="423" t="s">
         <v>847</v>
@@ -8474,7 +8459,7 @@
         <v>396</v>
       </c>
       <c r="Y9" s="439" t="s">
-        <v>1100</v>
+        <v>1123</v>
       </c>
       <c r="Z9" s="440" t="s">
         <v>397</v>
@@ -8487,7 +8472,7 @@
       </c>
       <c r="AC9" s="459"/>
       <c r="AD9" s="448" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="AE9" s="458"/>
       <c r="AF9" s="460" t="s">
@@ -8580,19 +8565,17 @@
       <c r="C10" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="715" t="s">
-        <v>1129</v>
-      </c>
+      <c r="D10" s="715"/>
       <c r="E10" s="123" t="s">
         <v>391</v>
       </c>
       <c r="F10" s="395" t="s">
-        <v>1048</v>
+        <v>753</v>
       </c>
       <c r="G10" s="277"/>
       <c r="H10" s="400"/>
       <c r="I10" s="397" t="s">
-        <v>1051</v>
+        <v>1089</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>393</v>
@@ -8604,7 +8587,7 @@
         <v>394</v>
       </c>
       <c r="M10" s="412" t="s">
-        <v>1061</v>
+        <v>1092</v>
       </c>
       <c r="N10" s="279" t="s">
         <v>562</v>
@@ -8616,7 +8599,7 @@
         <v>409</v>
       </c>
       <c r="Q10" s="412" t="s">
-        <v>1074</v>
+        <v>1096</v>
       </c>
       <c r="R10" s="422" t="s">
         <v>395</v>
@@ -8628,7 +8611,7 @@
         <v>562</v>
       </c>
       <c r="U10" s="428" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="V10" s="424" t="s">
         <v>848</v>
@@ -8640,7 +8623,7 @@
         <v>396</v>
       </c>
       <c r="Y10" s="436" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="Z10" s="437" t="s">
         <v>397</v>
@@ -8655,7 +8638,7 @@
         <v>1025</v>
       </c>
       <c r="AD10" s="449" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AE10" s="454"/>
       <c r="AF10" s="456" t="s">
@@ -8740,14 +8723,12 @@
       <c r="C11" s="97" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="632" t="s">
-        <v>1130</v>
-      </c>
+      <c r="D11" s="632"/>
       <c r="E11" s="90" t="s">
         <v>391</v>
       </c>
       <c r="F11" s="410" t="s">
-        <v>1048</v>
+        <v>753</v>
       </c>
       <c r="G11" s="461"/>
       <c r="H11" s="472" t="s">
@@ -8762,7 +8743,7 @@
         <v>394</v>
       </c>
       <c r="M11" s="409" t="s">
-        <v>1062</v>
+        <v>1093</v>
       </c>
       <c r="N11" s="446" t="s">
         <v>562</v>
@@ -8774,7 +8755,7 @@
         <v>409</v>
       </c>
       <c r="Q11" s="409" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
       <c r="R11" s="419" t="s">
         <v>395</v>
@@ -8786,7 +8767,7 @@
         <v>562</v>
       </c>
       <c r="U11" s="420" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="V11" s="442" t="s">
         <v>849</v>
@@ -8796,7 +8777,7 @@
         <v>396</v>
       </c>
       <c r="Y11" s="432" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="Z11" s="431" t="s">
         <v>397</v>
@@ -8809,7 +8790,7 @@
       </c>
       <c r="AC11" s="443"/>
       <c r="AD11" s="442" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="AE11" s="446"/>
       <c r="AF11" s="444" t="s">
@@ -8890,19 +8871,17 @@
       <c r="C12" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="632" t="s">
-        <v>1131</v>
-      </c>
+      <c r="D12" s="632"/>
       <c r="E12" s="90" t="s">
         <v>391</v>
       </c>
       <c r="F12" s="410" t="s">
-        <v>1048</v>
+        <v>753</v>
       </c>
       <c r="G12" s="461"/>
       <c r="H12" s="472"/>
       <c r="I12" s="409" t="s">
-        <v>1052</v>
+        <v>1090</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>393</v>
@@ -8914,7 +8893,7 @@
         <v>394</v>
       </c>
       <c r="M12" s="409" t="s">
-        <v>1063</v>
+        <v>1094</v>
       </c>
       <c r="N12" s="446" t="s">
         <v>562</v>
@@ -8926,7 +8905,7 @@
         <v>409</v>
       </c>
       <c r="Q12" s="409" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="R12" s="419" t="s">
         <v>586</v>
@@ -8938,7 +8917,7 @@
         <v>562</v>
       </c>
       <c r="U12" s="420" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="V12" s="90" t="s">
         <v>850</v>
@@ -8950,7 +8929,7 @@
         <v>396</v>
       </c>
       <c r="Y12" s="432" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="Z12" s="430" t="s">
         <v>397</v>
@@ -8965,7 +8944,7 @@
         <v>570</v>
       </c>
       <c r="AD12" s="442" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="AE12" s="446"/>
       <c r="AF12" s="101" t="s">
@@ -9049,21 +9028,19 @@
       <c r="C13" s="97" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="632" t="s">
-        <v>1132</v>
-      </c>
+      <c r="D13" s="632"/>
       <c r="E13" s="90" t="s">
         <v>391</v>
       </c>
       <c r="F13" s="410" t="s">
-        <v>1048</v>
+        <v>753</v>
       </c>
       <c r="G13" s="461" t="s">
         <v>392</v>
       </c>
       <c r="H13" s="472"/>
       <c r="I13" s="409" t="s">
-        <v>1053</v>
+        <v>1091</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>393</v>
@@ -9075,7 +9052,7 @@
         <v>394</v>
       </c>
       <c r="M13" s="409" t="s">
-        <v>1064</v>
+        <v>1095</v>
       </c>
       <c r="N13" s="446" t="s">
         <v>562</v>
@@ -9087,7 +9064,7 @@
         <v>409</v>
       </c>
       <c r="Q13" s="409" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="R13" s="419" t="s">
         <v>587</v>
@@ -9099,7 +9076,7 @@
         <v>562</v>
       </c>
       <c r="U13" s="420" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="V13" s="90" t="s">
         <v>851</v>
@@ -9111,7 +9088,7 @@
         <v>396</v>
       </c>
       <c r="Y13" s="432" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="Z13" s="430" t="s">
         <v>397</v>
@@ -9126,7 +9103,7 @@
         <v>591</v>
       </c>
       <c r="AD13" s="442" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="AE13" s="358"/>
       <c r="AF13" s="101" t="s">
@@ -9224,7 +9201,7 @@
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
       <c r="I14" s="381" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>393</v>
@@ -9236,7 +9213,7 @@
         <v>394</v>
       </c>
       <c r="M14" s="409" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="N14" s="106" t="s">
         <v>562</v>
@@ -9248,7 +9225,7 @@
         <v>409</v>
       </c>
       <c r="Q14" s="409" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="R14" s="92" t="s">
         <v>603</v>
@@ -9260,7 +9237,7 @@
         <v>562</v>
       </c>
       <c r="U14" s="420" t="s">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="V14" s="90" t="s">
         <v>852</v>
@@ -9272,7 +9249,7 @@
         <v>905</v>
       </c>
       <c r="Y14" s="432" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
       <c r="Z14" s="93" t="s">
         <v>397</v>
@@ -9287,7 +9264,7 @@
         <v>593</v>
       </c>
       <c r="AD14" s="380" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="AE14" s="106"/>
       <c r="AF14" s="101" t="s">
@@ -9384,7 +9361,7 @@
       <c r="G15" s="461"/>
       <c r="H15" s="472"/>
       <c r="I15" s="381" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>393</v>
@@ -9396,7 +9373,7 @@
         <v>394</v>
       </c>
       <c r="M15" s="409" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="N15" s="446" t="s">
         <v>562</v>
@@ -9408,7 +9385,7 @@
         <v>409</v>
       </c>
       <c r="Q15" s="409" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="R15" s="419" t="s">
         <v>605</v>
@@ -9420,7 +9397,7 @@
         <v>562</v>
       </c>
       <c r="U15" s="420" t="s">
-        <v>1093</v>
+        <v>1070</v>
       </c>
       <c r="V15" s="90" t="s">
         <v>853</v>
@@ -9432,7 +9409,7 @@
         <v>396</v>
       </c>
       <c r="Y15" s="432" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
       <c r="Z15" s="430" t="s">
         <v>397</v>
@@ -9447,7 +9424,7 @@
         <v>607</v>
       </c>
       <c r="AD15" s="442" t="s">
-        <v>1120</v>
+        <v>1084</v>
       </c>
       <c r="AE15" s="446"/>
       <c r="AF15" s="101" t="s">
@@ -9549,7 +9526,7 @@
         <v>394</v>
       </c>
       <c r="M16" s="409" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="N16" s="106" t="s">
         <v>562</v>
@@ -9561,7 +9538,7 @@
         <v>409</v>
       </c>
       <c r="Q16" s="409" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="R16" s="419" t="s">
         <v>892</v>
@@ -9573,7 +9550,7 @@
         <v>562</v>
       </c>
       <c r="U16" s="420" t="s">
-        <v>1094</v>
+        <v>1071</v>
       </c>
       <c r="V16" s="90" t="s">
         <v>893</v>
@@ -9583,7 +9560,7 @@
         <v>905</v>
       </c>
       <c r="Y16" s="432" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="Z16" s="93" t="s">
         <v>397</v>
@@ -9596,7 +9573,7 @@
       </c>
       <c r="AC16" s="100"/>
       <c r="AD16" s="380" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="AE16" s="106"/>
       <c r="AF16" s="101" t="s">
@@ -9690,7 +9667,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
       <c r="I17" s="381" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>393</v>
@@ -9702,7 +9679,7 @@
         <v>394</v>
       </c>
       <c r="M17" s="409" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="N17" s="106" t="s">
         <v>562</v>
@@ -9714,7 +9691,7 @@
         <v>409</v>
       </c>
       <c r="Q17" s="409" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="R17" s="92" t="s">
         <v>902</v>
@@ -9726,7 +9703,7 @@
         <v>562</v>
       </c>
       <c r="U17" s="420" t="s">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="V17" s="90" t="s">
         <v>893</v>
@@ -9736,7 +9713,7 @@
         <v>904</v>
       </c>
       <c r="Y17" s="432" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
       <c r="Z17" s="93" t="s">
         <v>397</v>
@@ -9751,7 +9728,7 @@
         <v>570</v>
       </c>
       <c r="AD17" s="380" t="s">
-        <v>1122</v>
+        <v>1084</v>
       </c>
       <c r="AE17" s="106"/>
       <c r="AF17" s="101" t="s">
@@ -9843,7 +9820,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="381" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>910</v>
@@ -9855,7 +9832,7 @@
         <v>918</v>
       </c>
       <c r="M18" s="409" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="N18" s="106" t="s">
         <v>562</v>
@@ -9867,7 +9844,7 @@
         <v>409</v>
       </c>
       <c r="Q18" s="409" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="R18" s="92" t="s">
         <v>603</v>
@@ -9879,7 +9856,7 @@
         <v>562</v>
       </c>
       <c r="U18" s="420" t="s">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="V18" s="90" t="s">
         <v>893</v>
@@ -9891,7 +9868,7 @@
         <v>905</v>
       </c>
       <c r="Y18" s="432" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
       <c r="Z18" s="93" t="s">
         <v>397</v>
@@ -9906,7 +9883,7 @@
         <v>570</v>
       </c>
       <c r="AD18" s="380" t="s">
-        <v>1123</v>
+        <v>1085</v>
       </c>
       <c r="AE18" s="106"/>
       <c r="AF18" s="101" t="s">
@@ -9998,7 +9975,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
       <c r="I19" s="381" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>393</v>
@@ -10010,7 +9987,7 @@
         <v>918</v>
       </c>
       <c r="M19" s="409" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="N19" s="106" t="s">
         <v>562</v>
@@ -10022,7 +9999,7 @@
         <v>409</v>
       </c>
       <c r="Q19" s="409" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="R19" s="92" t="s">
         <v>603</v>
@@ -10046,7 +10023,7 @@
         <v>905</v>
       </c>
       <c r="Y19" s="432" t="s">
-        <v>1110</v>
+        <v>1081</v>
       </c>
       <c r="Z19" s="93" t="s">
         <v>397</v>
@@ -10061,7 +10038,7 @@
         <v>570</v>
       </c>
       <c r="AD19" s="380" t="s">
-        <v>1124</v>
+        <v>1086</v>
       </c>
       <c r="AE19" s="106"/>
       <c r="AF19" s="101" t="s">
@@ -10165,7 +10142,7 @@
         <v>918</v>
       </c>
       <c r="M20" s="409" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="N20" s="106" t="s">
         <v>562</v>
@@ -10177,7 +10154,7 @@
         <v>409</v>
       </c>
       <c r="Q20" s="409" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="R20" s="92" t="s">
         <v>931</v>
@@ -10189,7 +10166,7 @@
         <v>562</v>
       </c>
       <c r="U20" s="420" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="V20" s="90" t="s">
         <v>926</v>
@@ -10201,7 +10178,7 @@
         <v>396</v>
       </c>
       <c r="Y20" s="432" t="s">
-        <v>1111</v>
+        <v>1082</v>
       </c>
       <c r="Z20" s="93" t="s">
         <v>397</v>
@@ -10216,7 +10193,7 @@
         <v>932</v>
       </c>
       <c r="AD20" s="380" t="s">
-        <v>1125</v>
+        <v>1087</v>
       </c>
       <c r="AE20" s="106"/>
       <c r="AF20" s="101" t="s">
@@ -10336,7 +10313,7 @@
         <v>409</v>
       </c>
       <c r="Q21" s="564" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="R21" s="92" t="s">
         <v>934</v>
@@ -10348,7 +10325,7 @@
         <v>562</v>
       </c>
       <c r="U21" s="566" t="s">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="V21" s="559" t="s">
         <v>926</v>
@@ -10360,7 +10337,7 @@
         <v>396</v>
       </c>
       <c r="Y21" s="567" t="s">
-        <v>1112</v>
+        <v>1083</v>
       </c>
       <c r="Z21" s="568" t="s">
         <v>397</v>
@@ -10375,7 +10352,7 @@
         <v>935</v>
       </c>
       <c r="AD21" s="572" t="s">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="AE21" s="565"/>
       <c r="AF21" s="573" t="s">

--- a/InputData/BookingData.xlsx
+++ b/InputData/BookingData.xlsx
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1126">
   <si>
     <t>ID</t>
   </si>
@@ -3720,253 +3720,247 @@
     <t>112-329-7806</t>
   </si>
   <si>
-    <t>26-Jun-2023</t>
-  </si>
-  <si>
     <t>49009</t>
   </si>
   <si>
+    <t>21-Jun-2023</t>
+  </si>
+  <si>
+    <t>125-368-2568</t>
+  </si>
+  <si>
+    <t>232-369-3654</t>
+  </si>
+  <si>
+    <t>232-370-607</t>
+  </si>
+  <si>
+    <t>232-371-548</t>
+  </si>
+  <si>
+    <t>232-372-956</t>
+  </si>
+  <si>
+    <t>4523850</t>
+  </si>
+  <si>
+    <t>451051</t>
+  </si>
+  <si>
+    <t>450252</t>
+  </si>
+  <si>
+    <t>456753</t>
+  </si>
+  <si>
+    <t>451255</t>
+  </si>
+  <si>
+    <t>453954</t>
+  </si>
+  <si>
+    <t>451856</t>
+  </si>
+  <si>
+    <t>AAS1249</t>
+  </si>
+  <si>
+    <t>BB11250</t>
+  </si>
+  <si>
+    <t>BB11051</t>
+  </si>
+  <si>
+    <t>BB11052</t>
+  </si>
+  <si>
+    <t>BB11853</t>
+  </si>
+  <si>
+    <t>BB11854</t>
+  </si>
+  <si>
+    <t>BB11855</t>
+  </si>
+  <si>
+    <t>BB30056</t>
+  </si>
+  <si>
+    <t>ICICI00066791</t>
+  </si>
+  <si>
+    <t>ICICI00073592</t>
+  </si>
+  <si>
+    <t>ICICI0006793</t>
+  </si>
+  <si>
+    <t>ICICI00003294</t>
+  </si>
+  <si>
+    <t>ICICI0003995</t>
+  </si>
+  <si>
+    <t>ICICI0000197</t>
+  </si>
+  <si>
+    <t>ICICI0008898</t>
+  </si>
+  <si>
+    <t>353307</t>
+  </si>
+  <si>
+    <t>340308</t>
+  </si>
+  <si>
+    <t>345309</t>
+  </si>
+  <si>
+    <t>345310</t>
+  </si>
+  <si>
+    <t>3448011</t>
+  </si>
+  <si>
+    <t>3424812</t>
+  </si>
+  <si>
+    <t>343113</t>
+  </si>
+  <si>
+    <t>3463514</t>
+  </si>
+  <si>
+    <t>PF/PR/672/2023</t>
+  </si>
+  <si>
+    <t>PF/PP/673/2023</t>
+  </si>
+  <si>
+    <t>PF/PP/674/2023</t>
+  </si>
+  <si>
+    <t>PF/PP/675/2023</t>
+  </si>
+  <si>
+    <t>PF/AP/676/2023</t>
+  </si>
+  <si>
+    <t>458-373-3654</t>
+  </si>
+  <si>
+    <t>258-374-3657</t>
+  </si>
+  <si>
+    <t>457554</t>
+  </si>
+  <si>
+    <t>426555</t>
+  </si>
+  <si>
+    <t>1HG854</t>
+  </si>
+  <si>
+    <t>1267955</t>
+  </si>
+  <si>
+    <t>ICICI00063594</t>
+  </si>
+  <si>
+    <t>ICICI00072395</t>
+  </si>
+  <si>
+    <t>323510</t>
+  </si>
+  <si>
+    <t>396711</t>
+  </si>
+  <si>
+    <t>PF/PR/673/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/674/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/675/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/676/2023</t>
+  </si>
+  <si>
     <t>28-Jun-2023</t>
   </si>
   <si>
-    <t>21-Jun-2023</t>
-  </si>
-  <si>
-    <t>125-368-2568</t>
-  </si>
-  <si>
-    <t>232-369-3654</t>
-  </si>
-  <si>
-    <t>232-370-607</t>
-  </si>
-  <si>
-    <t>232-371-548</t>
-  </si>
-  <si>
-    <t>232-372-956</t>
-  </si>
-  <si>
-    <t>4523850</t>
-  </si>
-  <si>
-    <t>451051</t>
-  </si>
-  <si>
-    <t>450252</t>
-  </si>
-  <si>
-    <t>456753</t>
-  </si>
-  <si>
-    <t>451255</t>
-  </si>
-  <si>
-    <t>453954</t>
-  </si>
-  <si>
-    <t>451856</t>
-  </si>
-  <si>
-    <t>AAS1249</t>
-  </si>
-  <si>
-    <t>BB11250</t>
-  </si>
-  <si>
-    <t>BB11051</t>
-  </si>
-  <si>
-    <t>BB11052</t>
-  </si>
-  <si>
-    <t>BB11853</t>
-  </si>
-  <si>
-    <t>BB11854</t>
-  </si>
-  <si>
-    <t>BB11855</t>
-  </si>
-  <si>
-    <t>BB30056</t>
-  </si>
-  <si>
-    <t>ICICI00066791</t>
-  </si>
-  <si>
-    <t>ICICI00073592</t>
-  </si>
-  <si>
-    <t>ICICI0006793</t>
-  </si>
-  <si>
-    <t>ICICI00003294</t>
-  </si>
-  <si>
-    <t>ICICI0003995</t>
-  </si>
-  <si>
-    <t>ICICI0000197</t>
-  </si>
-  <si>
-    <t>ICICI0008898</t>
-  </si>
-  <si>
-    <t>353307</t>
-  </si>
-  <si>
-    <t>340308</t>
-  </si>
-  <si>
-    <t>345309</t>
-  </si>
-  <si>
-    <t>345310</t>
-  </si>
-  <si>
-    <t>3448011</t>
-  </si>
-  <si>
-    <t>3424812</t>
-  </si>
-  <si>
-    <t>343113</t>
-  </si>
-  <si>
-    <t>3463514</t>
-  </si>
-  <si>
-    <t>PF/PR/672/2023</t>
-  </si>
-  <si>
-    <t>PF/PP/673/2023</t>
-  </si>
-  <si>
-    <t>PF/PP/674/2023</t>
-  </si>
-  <si>
-    <t>PF/PP/675/2023</t>
-  </si>
-  <si>
-    <t>PF/AP/676/2023</t>
-  </si>
-  <si>
-    <t>232-372-2587</t>
-  </si>
-  <si>
-    <t>458-373-3654</t>
-  </si>
-  <si>
-    <t>258-374-3657</t>
-  </si>
-  <si>
-    <t>42652</t>
-  </si>
-  <si>
-    <t>477153</t>
-  </si>
-  <si>
-    <t>457554</t>
-  </si>
-  <si>
-    <t>426555</t>
-  </si>
-  <si>
-    <t>535352</t>
-  </si>
-  <si>
-    <t>166253</t>
-  </si>
-  <si>
-    <t>1HG854</t>
-  </si>
-  <si>
-    <t>1267955</t>
-  </si>
-  <si>
-    <t>ICICI0000892</t>
-  </si>
-  <si>
-    <t>ICICI0000693</t>
-  </si>
-  <si>
-    <t>ICICI00063594</t>
-  </si>
-  <si>
-    <t>ICICI00072395</t>
-  </si>
-  <si>
-    <t>345808</t>
-  </si>
-  <si>
-    <t>324609</t>
-  </si>
-  <si>
-    <t>323510</t>
-  </si>
-  <si>
-    <t>396711</t>
-  </si>
-  <si>
-    <t>PF/PR/673/2023</t>
-  </si>
-  <si>
-    <t>PF/SA/672/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/674/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/675/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/676/2023</t>
-  </si>
-  <si>
-    <t>890-374-6027</t>
-  </si>
-  <si>
-    <t>232-375-9631</t>
-  </si>
-  <si>
-    <t>29-Jun-2023</t>
-  </si>
-  <si>
-    <t>25054</t>
-  </si>
-  <si>
-    <t>43055</t>
-  </si>
-  <si>
-    <t>820054</t>
-  </si>
-  <si>
-    <t>180055</t>
-  </si>
-  <si>
-    <t>ICICI0000894</t>
-  </si>
-  <si>
-    <t>ICICI0000895</t>
-  </si>
-  <si>
-    <t>833808</t>
-  </si>
-  <si>
-    <t>353409</t>
-  </si>
-  <si>
-    <t>PF/RD/674/2023</t>
-  </si>
-  <si>
-    <t>PF/HE/675/2023</t>
-  </si>
-  <si>
-    <t>CHN/BKG/AFE/00179/23-24</t>
-  </si>
-  <si>
-    <t>MUM/BKG/AEC/00012/2122-51</t>
+    <t>232-394-2587</t>
+  </si>
+  <si>
+    <t>42677</t>
+  </si>
+  <si>
+    <t>47778</t>
+  </si>
+  <si>
+    <t>535377</t>
+  </si>
+  <si>
+    <t>166278</t>
+  </si>
+  <si>
+    <t>ICICI0000117</t>
+  </si>
+  <si>
+    <t>ICICI0000118</t>
+  </si>
+  <si>
+    <t>345831</t>
+  </si>
+  <si>
+    <t>324632</t>
+  </si>
+  <si>
+    <t>PF/SA/697/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/698/2023</t>
+  </si>
+  <si>
+    <t>03-Jul-2023</t>
+  </si>
+  <si>
+    <t>232-396-9631</t>
+  </si>
+  <si>
+    <t>15-Jul-2023</t>
+  </si>
+  <si>
+    <t>43079</t>
+  </si>
+  <si>
+    <t>180080</t>
+  </si>
+  <si>
+    <t>ICICI0000120</t>
+  </si>
+  <si>
+    <t>353434</t>
+  </si>
+  <si>
+    <t>PF/HE/700/2023</t>
+  </si>
+  <si>
+    <t>890-397-6027</t>
+  </si>
+  <si>
+    <t>820082</t>
+  </si>
+  <si>
+    <t>PF/RD/701/2023</t>
+  </si>
+  <si>
+    <t>25081</t>
+  </si>
+  <si>
+    <t>833836</t>
   </si>
 </sst>
 </file>
@@ -4165,6 +4159,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7450,7 +7445,7 @@
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8231,19 +8226,17 @@
       <c r="C8" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="717" t="s">
-        <v>1126</v>
-      </c>
+      <c r="D8" s="717"/>
       <c r="E8" s="215" t="s">
         <v>391</v>
       </c>
       <c r="F8" s="394" t="s">
-        <v>1045</v>
+        <v>1113</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="399"/>
       <c r="I8" s="451" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="J8" s="219" t="s">
         <v>393</v>
@@ -8255,7 +8248,7 @@
         <v>394</v>
       </c>
       <c r="M8" s="451" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="N8" s="220" t="s">
         <v>562</v>
@@ -8267,7 +8260,7 @@
         <v>409</v>
       </c>
       <c r="Q8" s="451" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="R8" s="465" t="s">
         <v>727</v>
@@ -8279,7 +8272,7 @@
         <v>562</v>
       </c>
       <c r="U8" s="426" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="V8" s="425" t="s">
         <v>854</v>
@@ -8291,7 +8284,7 @@
         <v>396</v>
       </c>
       <c r="Y8" s="434" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="Z8" s="435" t="s">
         <v>397</v>
@@ -8306,7 +8299,7 @@
         <v>561</v>
       </c>
       <c r="AD8" s="450" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AE8" s="452"/>
       <c r="AF8" s="451" t="s">
@@ -8399,14 +8392,12 @@
       <c r="C9" s="288" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="714" t="s">
-        <v>1127</v>
-      </c>
+      <c r="D9" s="714"/>
       <c r="E9" s="122" t="s">
         <v>391</v>
       </c>
       <c r="F9" s="396" t="s">
-        <v>1045</v>
+        <v>1113</v>
       </c>
       <c r="G9" s="289"/>
       <c r="H9" s="401" t="s">
@@ -8419,13 +8410,13 @@
         <v>393</v>
       </c>
       <c r="K9" s="407" t="s">
-        <v>1047</v>
+        <v>752</v>
       </c>
       <c r="L9" s="408" t="s">
         <v>394</v>
       </c>
       <c r="M9" s="411" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N9" s="291" t="s">
         <v>562</v>
@@ -8437,7 +8428,7 @@
         <v>409</v>
       </c>
       <c r="Q9" s="411" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="R9" s="421" t="s">
         <v>395</v>
@@ -8449,7 +8440,7 @@
         <v>562</v>
       </c>
       <c r="U9" s="429" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="V9" s="423" t="s">
         <v>847</v>
@@ -8459,7 +8450,7 @@
         <v>396</v>
       </c>
       <c r="Y9" s="439" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="Z9" s="440" t="s">
         <v>397</v>
@@ -8472,7 +8463,7 @@
       </c>
       <c r="AC9" s="459"/>
       <c r="AD9" s="448" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="AE9" s="458"/>
       <c r="AF9" s="460" t="s">
@@ -8570,12 +8561,12 @@
         <v>391</v>
       </c>
       <c r="F10" s="395" t="s">
-        <v>753</v>
+        <v>657</v>
       </c>
       <c r="G10" s="277"/>
       <c r="H10" s="400"/>
       <c r="I10" s="397" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>393</v>
@@ -8587,7 +8578,7 @@
         <v>394</v>
       </c>
       <c r="M10" s="412" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="N10" s="279" t="s">
         <v>562</v>
@@ -8599,7 +8590,7 @@
         <v>409</v>
       </c>
       <c r="Q10" s="412" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="R10" s="422" t="s">
         <v>395</v>
@@ -8611,7 +8602,7 @@
         <v>562</v>
       </c>
       <c r="U10" s="428" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="V10" s="424" t="s">
         <v>848</v>
@@ -8623,7 +8614,7 @@
         <v>396</v>
       </c>
       <c r="Y10" s="436" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="Z10" s="437" t="s">
         <v>397</v>
@@ -8638,7 +8629,7 @@
         <v>1025</v>
       </c>
       <c r="AD10" s="449" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="AE10" s="454"/>
       <c r="AF10" s="456" t="s">
@@ -8728,7 +8719,7 @@
         <v>391</v>
       </c>
       <c r="F11" s="410" t="s">
-        <v>753</v>
+        <v>657</v>
       </c>
       <c r="G11" s="461"/>
       <c r="H11" s="472" t="s">
@@ -8743,7 +8734,7 @@
         <v>394</v>
       </c>
       <c r="M11" s="409" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="N11" s="446" t="s">
         <v>562</v>
@@ -8755,7 +8746,7 @@
         <v>409</v>
       </c>
       <c r="Q11" s="409" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="R11" s="419" t="s">
         <v>395</v>
@@ -8767,7 +8758,7 @@
         <v>562</v>
       </c>
       <c r="U11" s="420" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="V11" s="442" t="s">
         <v>849</v>
@@ -8777,7 +8768,7 @@
         <v>396</v>
       </c>
       <c r="Y11" s="432" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="Z11" s="431" t="s">
         <v>397</v>
@@ -8790,7 +8781,7 @@
       </c>
       <c r="AC11" s="443"/>
       <c r="AD11" s="442" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="AE11" s="446"/>
       <c r="AF11" s="444" t="s">
@@ -8876,12 +8867,12 @@
         <v>391</v>
       </c>
       <c r="F12" s="410" t="s">
-        <v>753</v>
+        <v>1101</v>
       </c>
       <c r="G12" s="461"/>
       <c r="H12" s="472"/>
       <c r="I12" s="409" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>393</v>
@@ -8893,7 +8884,7 @@
         <v>394</v>
       </c>
       <c r="M12" s="409" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="N12" s="446" t="s">
         <v>562</v>
@@ -8905,7 +8896,7 @@
         <v>409</v>
       </c>
       <c r="Q12" s="409" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="R12" s="419" t="s">
         <v>586</v>
@@ -8917,7 +8908,7 @@
         <v>562</v>
       </c>
       <c r="U12" s="420" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="V12" s="90" t="s">
         <v>850</v>
@@ -8929,7 +8920,7 @@
         <v>396</v>
       </c>
       <c r="Y12" s="432" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="Z12" s="430" t="s">
         <v>397</v>
@@ -8944,7 +8935,7 @@
         <v>570</v>
       </c>
       <c r="AD12" s="442" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="AE12" s="446"/>
       <c r="AF12" s="101" t="s">
@@ -9040,7 +9031,7 @@
       </c>
       <c r="H13" s="472"/>
       <c r="I13" s="409" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>393</v>
@@ -9052,7 +9043,7 @@
         <v>394</v>
       </c>
       <c r="M13" s="409" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="N13" s="446" t="s">
         <v>562</v>
@@ -9064,7 +9055,7 @@
         <v>409</v>
       </c>
       <c r="Q13" s="409" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="R13" s="419" t="s">
         <v>587</v>
@@ -9076,7 +9067,7 @@
         <v>562</v>
       </c>
       <c r="U13" s="420" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="V13" s="90" t="s">
         <v>851</v>
@@ -9088,7 +9079,7 @@
         <v>396</v>
       </c>
       <c r="Y13" s="432" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="Z13" s="430" t="s">
         <v>397</v>
@@ -9103,7 +9094,7 @@
         <v>591</v>
       </c>
       <c r="AD13" s="442" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="AE13" s="358"/>
       <c r="AF13" s="101" t="s">
@@ -9196,12 +9187,12 @@
         <v>391</v>
       </c>
       <c r="F14" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
       <c r="I14" s="381" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>393</v>
@@ -9213,7 +9204,7 @@
         <v>394</v>
       </c>
       <c r="M14" s="409" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N14" s="106" t="s">
         <v>562</v>
@@ -9225,7 +9216,7 @@
         <v>409</v>
       </c>
       <c r="Q14" s="409" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="R14" s="92" t="s">
         <v>603</v>
@@ -9237,7 +9228,7 @@
         <v>562</v>
       </c>
       <c r="U14" s="420" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="V14" s="90" t="s">
         <v>852</v>
@@ -9249,7 +9240,7 @@
         <v>905</v>
       </c>
       <c r="Y14" s="432" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Z14" s="93" t="s">
         <v>397</v>
@@ -9264,7 +9255,7 @@
         <v>593</v>
       </c>
       <c r="AD14" s="380" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="AE14" s="106"/>
       <c r="AF14" s="101" t="s">
@@ -9356,12 +9347,12 @@
         <v>391</v>
       </c>
       <c r="F15" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G15" s="461"/>
       <c r="H15" s="472"/>
       <c r="I15" s="381" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>393</v>
@@ -9373,7 +9364,7 @@
         <v>394</v>
       </c>
       <c r="M15" s="409" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N15" s="446" t="s">
         <v>562</v>
@@ -9385,7 +9376,7 @@
         <v>409</v>
       </c>
       <c r="Q15" s="409" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="R15" s="419" t="s">
         <v>605</v>
@@ -9397,7 +9388,7 @@
         <v>562</v>
       </c>
       <c r="U15" s="420" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="V15" s="90" t="s">
         <v>853</v>
@@ -9409,7 +9400,7 @@
         <v>396</v>
       </c>
       <c r="Y15" s="432" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Z15" s="430" t="s">
         <v>397</v>
@@ -9424,7 +9415,7 @@
         <v>607</v>
       </c>
       <c r="AD15" s="442" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AE15" s="446"/>
       <c r="AF15" s="101" t="s">
@@ -9513,7 +9504,7 @@
         <v>911</v>
       </c>
       <c r="F16" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="45"/>
@@ -9526,7 +9517,7 @@
         <v>394</v>
       </c>
       <c r="M16" s="409" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N16" s="106" t="s">
         <v>562</v>
@@ -9538,7 +9529,7 @@
         <v>409</v>
       </c>
       <c r="Q16" s="409" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="R16" s="419" t="s">
         <v>892</v>
@@ -9550,7 +9541,7 @@
         <v>562</v>
       </c>
       <c r="U16" s="420" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="V16" s="90" t="s">
         <v>893</v>
@@ -9560,7 +9551,7 @@
         <v>905</v>
       </c>
       <c r="Y16" s="432" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Z16" s="93" t="s">
         <v>397</v>
@@ -9573,7 +9564,7 @@
       </c>
       <c r="AC16" s="100"/>
       <c r="AD16" s="380" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="AE16" s="106"/>
       <c r="AF16" s="101" t="s">
@@ -9662,12 +9653,12 @@
         <v>391</v>
       </c>
       <c r="F17" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
       <c r="I17" s="381" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>393</v>
@@ -9679,7 +9670,7 @@
         <v>394</v>
       </c>
       <c r="M17" s="409" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N17" s="106" t="s">
         <v>562</v>
@@ -9691,7 +9682,7 @@
         <v>409</v>
       </c>
       <c r="Q17" s="409" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="R17" s="92" t="s">
         <v>902</v>
@@ -9703,7 +9694,7 @@
         <v>562</v>
       </c>
       <c r="U17" s="420" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="V17" s="90" t="s">
         <v>893</v>
@@ -9713,7 +9704,7 @@
         <v>904</v>
       </c>
       <c r="Y17" s="432" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Z17" s="93" t="s">
         <v>397</v>
@@ -9728,7 +9719,7 @@
         <v>570</v>
       </c>
       <c r="AD17" s="380" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AE17" s="106"/>
       <c r="AF17" s="101" t="s">
@@ -9815,12 +9806,12 @@
         <v>911</v>
       </c>
       <c r="F18" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="381" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>910</v>
@@ -9832,7 +9823,7 @@
         <v>918</v>
       </c>
       <c r="M18" s="409" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N18" s="106" t="s">
         <v>562</v>
@@ -9844,7 +9835,7 @@
         <v>409</v>
       </c>
       <c r="Q18" s="409" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="R18" s="92" t="s">
         <v>603</v>
@@ -9856,7 +9847,7 @@
         <v>562</v>
       </c>
       <c r="U18" s="420" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="V18" s="90" t="s">
         <v>893</v>
@@ -9868,7 +9859,7 @@
         <v>905</v>
       </c>
       <c r="Y18" s="432" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Z18" s="93" t="s">
         <v>397</v>
@@ -9883,7 +9874,7 @@
         <v>570</v>
       </c>
       <c r="AD18" s="380" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AE18" s="106"/>
       <c r="AF18" s="101" t="s">
@@ -9970,12 +9961,12 @@
         <v>911</v>
       </c>
       <c r="F19" s="410" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
       <c r="I19" s="381" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>393</v>
@@ -9987,7 +9978,7 @@
         <v>918</v>
       </c>
       <c r="M19" s="409" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N19" s="106" t="s">
         <v>562</v>
@@ -9999,7 +9990,7 @@
         <v>409</v>
       </c>
       <c r="Q19" s="409" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="R19" s="92" t="s">
         <v>603</v>
@@ -10023,7 +10014,7 @@
         <v>905</v>
       </c>
       <c r="Y19" s="432" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z19" s="93" t="s">
         <v>397</v>
@@ -10038,7 +10029,7 @@
         <v>570</v>
       </c>
       <c r="AD19" s="380" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AE19" s="106"/>
       <c r="AF19" s="101" t="s">
@@ -10142,7 +10133,7 @@
         <v>918</v>
       </c>
       <c r="M20" s="409" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N20" s="106" t="s">
         <v>562</v>
@@ -10154,7 +10145,7 @@
         <v>409</v>
       </c>
       <c r="Q20" s="409" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="R20" s="92" t="s">
         <v>931</v>
@@ -10166,7 +10157,7 @@
         <v>562</v>
       </c>
       <c r="U20" s="420" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="V20" s="90" t="s">
         <v>926</v>
@@ -10178,7 +10169,7 @@
         <v>396</v>
       </c>
       <c r="Y20" s="432" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Z20" s="93" t="s">
         <v>397</v>
@@ -10193,7 +10184,7 @@
         <v>932</v>
       </c>
       <c r="AD20" s="380" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AE20" s="106"/>
       <c r="AF20" s="101" t="s">
@@ -10301,7 +10292,7 @@
         <v>918</v>
       </c>
       <c r="M21" s="564" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N21" s="565" t="s">
         <v>562</v>
@@ -10313,7 +10304,7 @@
         <v>409</v>
       </c>
       <c r="Q21" s="564" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="R21" s="92" t="s">
         <v>934</v>
@@ -10325,7 +10316,7 @@
         <v>562</v>
       </c>
       <c r="U21" s="566" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="V21" s="559" t="s">
         <v>926</v>
@@ -10337,7 +10328,7 @@
         <v>396</v>
       </c>
       <c r="Y21" s="567" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Z21" s="568" t="s">
         <v>397</v>
@@ -10352,7 +10343,7 @@
         <v>935</v>
       </c>
       <c r="AD21" s="572" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AE21" s="565"/>
       <c r="AF21" s="573" t="s">
@@ -14519,7 +14510,7 @@
   <dimension ref="A1:GI134"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15239,7 +15230,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="247">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" s="256" t="s">
         <v>23</v>
@@ -15361,7 +15352,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="486">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" s="487" t="s">
         <v>29</v>
@@ -15381,8 +15372,8 @@
       <c r="H10" s="614" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="487" t="s">
-        <v>395</v>
+      <c r="I10" s="256" t="s">
+        <v>727</v>
       </c>
       <c r="J10" s="488">
         <v>120.23</v>
@@ -15400,8 +15391,8 @@
       <c r="O10" s="623" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="624" t="s">
-        <v>970</v>
+      <c r="P10" s="483" t="s">
+        <v>730</v>
       </c>
       <c r="Q10" s="490">
         <v>140.25</v>

--- a/InputData/BookingData.xlsx
+++ b/InputData/BookingData.xlsx
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1124">
   <si>
     <t>ID</t>
   </si>
@@ -3663,18 +3663,12 @@
     <t>AAS789</t>
   </si>
   <si>
-    <t>11-Jul-2023</t>
-  </si>
-  <si>
     <t>AIRLINE CARGO INDIA PVT LTD</t>
   </si>
   <si>
     <t>24-Jun-2023</t>
   </si>
   <si>
-    <t>16-Jul-2023</t>
-  </si>
-  <si>
     <t>23-Jul-2023</t>
   </si>
   <si>
@@ -3924,43 +3918,43 @@
     <t>PF/PR/698/2023</t>
   </si>
   <si>
-    <t>03-Jul-2023</t>
-  </si>
-  <si>
-    <t>232-396-9631</t>
-  </si>
-  <si>
-    <t>15-Jul-2023</t>
-  </si>
-  <si>
-    <t>43079</t>
-  </si>
-  <si>
-    <t>180080</t>
-  </si>
-  <si>
-    <t>ICICI0000120</t>
-  </si>
-  <si>
-    <t>353434</t>
-  </si>
-  <si>
-    <t>PF/HE/700/2023</t>
-  </si>
-  <si>
-    <t>890-397-6027</t>
-  </si>
-  <si>
-    <t>820082</t>
-  </si>
-  <si>
-    <t>PF/RD/701/2023</t>
-  </si>
-  <si>
-    <t>25081</t>
-  </si>
-  <si>
-    <t>833836</t>
+    <t>890-402-6027</t>
+  </si>
+  <si>
+    <t>232-403-9631</t>
+  </si>
+  <si>
+    <t>25086</t>
+  </si>
+  <si>
+    <t>43087</t>
+  </si>
+  <si>
+    <t>820087</t>
+  </si>
+  <si>
+    <t>180088</t>
+  </si>
+  <si>
+    <t>ICICI0000125</t>
+  </si>
+  <si>
+    <t>ICICI0000126</t>
+  </si>
+  <si>
+    <t>833841</t>
+  </si>
+  <si>
+    <t>353442</t>
+  </si>
+  <si>
+    <t>PF/RD/706/2023</t>
+  </si>
+  <si>
+    <t>PF/HE/707/2023</t>
+  </si>
+  <si>
+    <t>30-Jul-2023</t>
   </si>
 </sst>
 </file>
@@ -7445,7 +7439,7 @@
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8231,36 +8225,36 @@
         <v>391</v>
       </c>
       <c r="F8" s="394" t="s">
-        <v>1113</v>
+        <v>769</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="399"/>
       <c r="I8" s="451" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J8" s="219" t="s">
         <v>393</v>
       </c>
       <c r="K8" s="403" t="s">
-        <v>1115</v>
+        <v>789</v>
       </c>
       <c r="L8" s="404" t="s">
         <v>394</v>
       </c>
       <c r="M8" s="451" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="N8" s="220" t="s">
         <v>562</v>
       </c>
       <c r="O8" s="413" t="s">
-        <v>1029</v>
+        <v>1123</v>
       </c>
       <c r="P8" s="414" t="s">
         <v>409</v>
       </c>
       <c r="Q8" s="451" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="R8" s="465" t="s">
         <v>727</v>
@@ -8272,7 +8266,7 @@
         <v>562</v>
       </c>
       <c r="U8" s="426" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V8" s="425" t="s">
         <v>854</v>
@@ -8284,7 +8278,7 @@
         <v>396</v>
       </c>
       <c r="Y8" s="434" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="Z8" s="435" t="s">
         <v>397</v>
@@ -8299,7 +8293,7 @@
         <v>561</v>
       </c>
       <c r="AD8" s="450" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AE8" s="452"/>
       <c r="AF8" s="451" t="s">
@@ -8397,14 +8391,14 @@
         <v>391</v>
       </c>
       <c r="F9" s="396" t="s">
-        <v>1113</v>
+        <v>769</v>
       </c>
       <c r="G9" s="289"/>
       <c r="H9" s="401" t="s">
         <v>574</v>
       </c>
       <c r="I9" s="398" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>393</v>
@@ -8416,19 +8410,19 @@
         <v>394</v>
       </c>
       <c r="M9" s="411" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="N9" s="291" t="s">
         <v>562</v>
       </c>
       <c r="O9" s="417" t="s">
-        <v>1026</v>
+        <v>789</v>
       </c>
       <c r="P9" s="418" t="s">
         <v>409</v>
       </c>
       <c r="Q9" s="411" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="R9" s="421" t="s">
         <v>395</v>
@@ -8450,7 +8444,7 @@
         <v>396</v>
       </c>
       <c r="Y9" s="439" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="Z9" s="440" t="s">
         <v>397</v>
@@ -8463,7 +8457,7 @@
       </c>
       <c r="AC9" s="459"/>
       <c r="AD9" s="448" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="AE9" s="458"/>
       <c r="AF9" s="460" t="s">
@@ -8566,31 +8560,31 @@
       <c r="G10" s="277"/>
       <c r="H10" s="400"/>
       <c r="I10" s="397" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>393</v>
       </c>
       <c r="K10" s="405" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L10" s="406" t="s">
         <v>394</v>
       </c>
       <c r="M10" s="412" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="N10" s="279" t="s">
         <v>562</v>
       </c>
       <c r="O10" s="415" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P10" s="416" t="s">
         <v>409</v>
       </c>
       <c r="Q10" s="412" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="R10" s="422" t="s">
         <v>395</v>
@@ -8602,7 +8596,7 @@
         <v>562</v>
       </c>
       <c r="U10" s="428" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="V10" s="424" t="s">
         <v>848</v>
@@ -8614,7 +8608,7 @@
         <v>396</v>
       </c>
       <c r="Y10" s="436" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Z10" s="437" t="s">
         <v>397</v>
@@ -8629,7 +8623,7 @@
         <v>1025</v>
       </c>
       <c r="AD10" s="449" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AE10" s="454"/>
       <c r="AF10" s="456" t="s">
@@ -8659,7 +8653,7 @@
         <v>407</v>
       </c>
       <c r="AP10" s="476" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AQ10" s="277" t="s">
         <v>576</v>
@@ -8734,7 +8728,7 @@
         <v>394</v>
       </c>
       <c r="M11" s="409" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="N11" s="446" t="s">
         <v>562</v>
@@ -8746,7 +8740,7 @@
         <v>409</v>
       </c>
       <c r="Q11" s="409" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="R11" s="419" t="s">
         <v>395</v>
@@ -8758,7 +8752,7 @@
         <v>562</v>
       </c>
       <c r="U11" s="420" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="V11" s="442" t="s">
         <v>849</v>
@@ -8768,7 +8762,7 @@
         <v>396</v>
       </c>
       <c r="Y11" s="432" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Z11" s="431" t="s">
         <v>397</v>
@@ -8781,7 +8775,7 @@
       </c>
       <c r="AC11" s="443"/>
       <c r="AD11" s="442" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AE11" s="446"/>
       <c r="AF11" s="444" t="s">
@@ -8867,12 +8861,12 @@
         <v>391</v>
       </c>
       <c r="F12" s="410" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G12" s="461"/>
       <c r="H12" s="472"/>
       <c r="I12" s="409" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>393</v>
@@ -8884,7 +8878,7 @@
         <v>394</v>
       </c>
       <c r="M12" s="409" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="N12" s="446" t="s">
         <v>562</v>
@@ -8896,7 +8890,7 @@
         <v>409</v>
       </c>
       <c r="Q12" s="409" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="R12" s="419" t="s">
         <v>586</v>
@@ -8908,19 +8902,19 @@
         <v>562</v>
       </c>
       <c r="U12" s="420" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="V12" s="90" t="s">
         <v>850</v>
       </c>
       <c r="W12" s="419" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="X12" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y12" s="432" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="Z12" s="430" t="s">
         <v>397</v>
@@ -8935,7 +8929,7 @@
         <v>570</v>
       </c>
       <c r="AD12" s="442" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AE12" s="446"/>
       <c r="AF12" s="101" t="s">
@@ -9031,7 +9025,7 @@
       </c>
       <c r="H13" s="472"/>
       <c r="I13" s="409" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>393</v>
@@ -9043,7 +9037,7 @@
         <v>394</v>
       </c>
       <c r="M13" s="409" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N13" s="446" t="s">
         <v>562</v>
@@ -9055,7 +9049,7 @@
         <v>409</v>
       </c>
       <c r="Q13" s="409" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="R13" s="419" t="s">
         <v>587</v>
@@ -9067,7 +9061,7 @@
         <v>562</v>
       </c>
       <c r="U13" s="420" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="V13" s="90" t="s">
         <v>851</v>
@@ -9079,7 +9073,7 @@
         <v>396</v>
       </c>
       <c r="Y13" s="432" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Z13" s="430" t="s">
         <v>397</v>
@@ -9094,7 +9088,7 @@
         <v>591</v>
       </c>
       <c r="AD13" s="442" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AE13" s="358"/>
       <c r="AF13" s="101" t="s">
@@ -9187,12 +9181,12 @@
         <v>391</v>
       </c>
       <c r="F14" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
       <c r="I14" s="381" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>393</v>
@@ -9204,7 +9198,7 @@
         <v>394</v>
       </c>
       <c r="M14" s="409" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N14" s="106" t="s">
         <v>562</v>
@@ -9216,7 +9210,7 @@
         <v>409</v>
       </c>
       <c r="Q14" s="409" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="R14" s="92" t="s">
         <v>603</v>
@@ -9228,7 +9222,7 @@
         <v>562</v>
       </c>
       <c r="U14" s="420" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="V14" s="90" t="s">
         <v>852</v>
@@ -9240,7 +9234,7 @@
         <v>905</v>
       </c>
       <c r="Y14" s="432" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Z14" s="93" t="s">
         <v>397</v>
@@ -9255,7 +9249,7 @@
         <v>593</v>
       </c>
       <c r="AD14" s="380" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AE14" s="106"/>
       <c r="AF14" s="101" t="s">
@@ -9347,12 +9341,12 @@
         <v>391</v>
       </c>
       <c r="F15" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G15" s="461"/>
       <c r="H15" s="472"/>
       <c r="I15" s="381" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>393</v>
@@ -9364,7 +9358,7 @@
         <v>394</v>
       </c>
       <c r="M15" s="409" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N15" s="446" t="s">
         <v>562</v>
@@ -9376,7 +9370,7 @@
         <v>409</v>
       </c>
       <c r="Q15" s="409" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="R15" s="419" t="s">
         <v>605</v>
@@ -9388,7 +9382,7 @@
         <v>562</v>
       </c>
       <c r="U15" s="420" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="V15" s="90" t="s">
         <v>853</v>
@@ -9400,7 +9394,7 @@
         <v>396</v>
       </c>
       <c r="Y15" s="432" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Z15" s="430" t="s">
         <v>397</v>
@@ -9415,7 +9409,7 @@
         <v>607</v>
       </c>
       <c r="AD15" s="442" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AE15" s="446"/>
       <c r="AF15" s="101" t="s">
@@ -9504,7 +9498,7 @@
         <v>911</v>
       </c>
       <c r="F16" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="45"/>
@@ -9517,7 +9511,7 @@
         <v>394</v>
       </c>
       <c r="M16" s="409" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N16" s="106" t="s">
         <v>562</v>
@@ -9529,7 +9523,7 @@
         <v>409</v>
       </c>
       <c r="Q16" s="409" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="R16" s="419" t="s">
         <v>892</v>
@@ -9541,7 +9535,7 @@
         <v>562</v>
       </c>
       <c r="U16" s="420" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="V16" s="90" t="s">
         <v>893</v>
@@ -9551,7 +9545,7 @@
         <v>905</v>
       </c>
       <c r="Y16" s="432" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Z16" s="93" t="s">
         <v>397</v>
@@ -9564,7 +9558,7 @@
       </c>
       <c r="AC16" s="100"/>
       <c r="AD16" s="380" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AE16" s="106"/>
       <c r="AF16" s="101" t="s">
@@ -9653,12 +9647,12 @@
         <v>391</v>
       </c>
       <c r="F17" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
       <c r="I17" s="381" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>393</v>
@@ -9670,7 +9664,7 @@
         <v>394</v>
       </c>
       <c r="M17" s="409" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N17" s="106" t="s">
         <v>562</v>
@@ -9682,7 +9676,7 @@
         <v>409</v>
       </c>
       <c r="Q17" s="409" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="R17" s="92" t="s">
         <v>902</v>
@@ -9694,7 +9688,7 @@
         <v>562</v>
       </c>
       <c r="U17" s="420" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="V17" s="90" t="s">
         <v>893</v>
@@ -9704,7 +9698,7 @@
         <v>904</v>
       </c>
       <c r="Y17" s="432" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Z17" s="93" t="s">
         <v>397</v>
@@ -9719,7 +9713,7 @@
         <v>570</v>
       </c>
       <c r="AD17" s="380" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AE17" s="106"/>
       <c r="AF17" s="101" t="s">
@@ -9806,12 +9800,12 @@
         <v>911</v>
       </c>
       <c r="F18" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="381" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>910</v>
@@ -9823,7 +9817,7 @@
         <v>918</v>
       </c>
       <c r="M18" s="409" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N18" s="106" t="s">
         <v>562</v>
@@ -9835,7 +9829,7 @@
         <v>409</v>
       </c>
       <c r="Q18" s="409" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="R18" s="92" t="s">
         <v>603</v>
@@ -9847,7 +9841,7 @@
         <v>562</v>
       </c>
       <c r="U18" s="420" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="V18" s="90" t="s">
         <v>893</v>
@@ -9859,7 +9853,7 @@
         <v>905</v>
       </c>
       <c r="Y18" s="432" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Z18" s="93" t="s">
         <v>397</v>
@@ -9874,7 +9868,7 @@
         <v>570</v>
       </c>
       <c r="AD18" s="380" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AE18" s="106"/>
       <c r="AF18" s="101" t="s">
@@ -9961,12 +9955,12 @@
         <v>911</v>
       </c>
       <c r="F19" s="410" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
       <c r="I19" s="381" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>393</v>
@@ -9978,7 +9972,7 @@
         <v>918</v>
       </c>
       <c r="M19" s="409" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N19" s="106" t="s">
         <v>562</v>
@@ -9990,7 +9984,7 @@
         <v>409</v>
       </c>
       <c r="Q19" s="409" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="R19" s="92" t="s">
         <v>603</v>
@@ -10014,7 +10008,7 @@
         <v>905</v>
       </c>
       <c r="Y19" s="432" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Z19" s="93" t="s">
         <v>397</v>
@@ -10029,7 +10023,7 @@
         <v>570</v>
       </c>
       <c r="AD19" s="380" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AE19" s="106"/>
       <c r="AF19" s="101" t="s">
@@ -10133,7 +10127,7 @@
         <v>918</v>
       </c>
       <c r="M20" s="409" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N20" s="106" t="s">
         <v>562</v>
@@ -10145,7 +10139,7 @@
         <v>409</v>
       </c>
       <c r="Q20" s="409" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="R20" s="92" t="s">
         <v>931</v>
@@ -10157,7 +10151,7 @@
         <v>562</v>
       </c>
       <c r="U20" s="420" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="V20" s="90" t="s">
         <v>926</v>
@@ -10169,7 +10163,7 @@
         <v>396</v>
       </c>
       <c r="Y20" s="432" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Z20" s="93" t="s">
         <v>397</v>
@@ -10184,7 +10178,7 @@
         <v>932</v>
       </c>
       <c r="AD20" s="380" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AE20" s="106"/>
       <c r="AF20" s="101" t="s">
@@ -10269,18 +10263,18 @@
         <v>421</v>
       </c>
       <c r="D21" s="667" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E21" s="559" t="s">
         <v>391</v>
       </c>
       <c r="F21" s="586" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G21" s="560"/>
       <c r="H21" s="561"/>
       <c r="I21" s="587" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J21" s="562" t="s">
         <v>393</v>
@@ -10292,7 +10286,7 @@
         <v>918</v>
       </c>
       <c r="M21" s="564" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="N21" s="565" t="s">
         <v>562</v>
@@ -10304,7 +10298,7 @@
         <v>409</v>
       </c>
       <c r="Q21" s="564" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="R21" s="92" t="s">
         <v>934</v>
@@ -10316,7 +10310,7 @@
         <v>562</v>
       </c>
       <c r="U21" s="566" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="V21" s="559" t="s">
         <v>926</v>
@@ -10328,7 +10322,7 @@
         <v>396</v>
       </c>
       <c r="Y21" s="567" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z21" s="568" t="s">
         <v>397</v>
@@ -10343,7 +10337,7 @@
         <v>935</v>
       </c>
       <c r="AD21" s="572" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AE21" s="565"/>
       <c r="AF21" s="573" t="s">
@@ -14510,7 +14504,7 @@
   <dimension ref="A1:GI134"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15263,7 +15257,7 @@
         <v>266</v>
       </c>
       <c r="M8" s="718" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N8" s="644"/>
       <c r="O8" s="260" t="s">
@@ -15279,7 +15273,7 @@
         <v>270</v>
       </c>
       <c r="S8" s="274" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
@@ -15324,7 +15318,7 @@
         <v>270</v>
       </c>
       <c r="M9" s="718" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N9" s="645"/>
       <c r="O9" s="260" t="s">
@@ -15340,7 +15334,7 @@
         <v>345</v>
       </c>
       <c r="S9" s="274" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
@@ -15385,7 +15379,7 @@
         <v>266</v>
       </c>
       <c r="M10" s="719" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N10" s="647"/>
       <c r="O10" s="623" t="s">
@@ -15446,7 +15440,7 @@
         <v>345</v>
       </c>
       <c r="M11" s="719" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N11" s="647"/>
       <c r="O11" s="623" t="s">
@@ -15756,7 +15750,7 @@
         <v>21</v>
       </c>
       <c r="P16" s="722" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="Q16" s="171">
         <v>415.69</v>
@@ -17223,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="382" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D8" s="262" t="s">
         <v>147</v>
@@ -17265,7 +17259,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="434" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D9" s="262" t="s">
         <v>148</v>
@@ -17307,7 +17301,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="523" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D10" s="524" t="s">
         <v>47</v>
@@ -17347,7 +17341,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="523" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D11" s="531" t="s">
         <v>50</v>
@@ -17387,7 +17381,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="383" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D12" s="318" t="s">
         <v>50</v>
@@ -17427,7 +17421,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="384" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D13" s="125" t="s">
         <v>147</v>
@@ -17467,7 +17461,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="679" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="680" t="s">
         <v>152</v>
@@ -17507,7 +17501,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="689" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D15" s="690" t="s">
         <v>150</v>

--- a/InputData/BookingData.xlsx
+++ b/InputData/BookingData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="basicDetail" sheetId="5" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1123">
   <si>
     <t>ID</t>
   </si>
@@ -2151,9 +2151,6 @@
     <t>12-Apr-2023</t>
   </si>
   <si>
-    <t>10-Apr-2023</t>
-  </si>
-  <si>
     <t>Us</t>
   </si>
   <si>
@@ -3666,12 +3663,6 @@
     <t>AIRLINE CARGO INDIA PVT LTD</t>
   </si>
   <si>
-    <t>24-Jun-2023</t>
-  </si>
-  <si>
-    <t>23-Jul-2023</t>
-  </si>
-  <si>
     <t>PPUB4855235</t>
   </si>
   <si>
@@ -3840,42 +3831,24 @@
     <t>PF/AP/676/2023</t>
   </si>
   <si>
-    <t>458-373-3654</t>
-  </si>
-  <si>
     <t>258-374-3657</t>
   </si>
   <si>
-    <t>457554</t>
-  </si>
-  <si>
     <t>426555</t>
   </si>
   <si>
-    <t>1HG854</t>
-  </si>
-  <si>
     <t>1267955</t>
   </si>
   <si>
-    <t>ICICI00063594</t>
-  </si>
-  <si>
     <t>ICICI00072395</t>
   </si>
   <si>
-    <t>323510</t>
-  </si>
-  <si>
     <t>396711</t>
   </si>
   <si>
     <t>PF/PR/673/2023</t>
   </si>
   <si>
-    <t>PF/PR/674/2023</t>
-  </si>
-  <si>
     <t>PF/PR/675/2023</t>
   </si>
   <si>
@@ -3885,76 +3858,100 @@
     <t>28-Jun-2023</t>
   </si>
   <si>
-    <t>232-394-2587</t>
-  </si>
-  <si>
-    <t>42677</t>
-  </si>
-  <si>
-    <t>47778</t>
-  </si>
-  <si>
-    <t>535377</t>
-  </si>
-  <si>
-    <t>166278</t>
-  </si>
-  <si>
-    <t>ICICI0000117</t>
-  </si>
-  <si>
-    <t>ICICI0000118</t>
-  </si>
-  <si>
-    <t>345831</t>
-  </si>
-  <si>
-    <t>324632</t>
-  </si>
-  <si>
-    <t>PF/SA/697/2023</t>
-  </si>
-  <si>
-    <t>PF/PR/698/2023</t>
-  </si>
-  <si>
-    <t>890-402-6027</t>
-  </si>
-  <si>
-    <t>232-403-9631</t>
-  </si>
-  <si>
-    <t>25086</t>
-  </si>
-  <si>
-    <t>43087</t>
-  </si>
-  <si>
-    <t>820087</t>
-  </si>
-  <si>
-    <t>180088</t>
-  </si>
-  <si>
-    <t>ICICI0000125</t>
-  </si>
-  <si>
-    <t>ICICI0000126</t>
-  </si>
-  <si>
-    <t>833841</t>
-  </si>
-  <si>
-    <t>353442</t>
-  </si>
-  <si>
-    <t>PF/RD/706/2023</t>
-  </si>
-  <si>
-    <t>PF/HE/707/2023</t>
-  </si>
-  <si>
     <t>30-Jul-2023</t>
+  </si>
+  <si>
+    <t>458-418-3654</t>
+  </si>
+  <si>
+    <t>477103</t>
+  </si>
+  <si>
+    <t>4575104</t>
+  </si>
+  <si>
+    <t>1662104</t>
+  </si>
+  <si>
+    <t>1HG105</t>
+  </si>
+  <si>
+    <t>ICICI0000142</t>
+  </si>
+  <si>
+    <t>ICICI0006143</t>
+  </si>
+  <si>
+    <t>324658</t>
+  </si>
+  <si>
+    <t>323559</t>
+  </si>
+  <si>
+    <t>PF/PR/723/2023</t>
+  </si>
+  <si>
+    <t>PF/PR/724/2023</t>
+  </si>
+  <si>
+    <t>02-Aug-2023</t>
+  </si>
+  <si>
+    <t>890-419-6027</t>
+  </si>
+  <si>
+    <t>232-420-9631</t>
+  </si>
+  <si>
+    <t>232-421-2587</t>
+  </si>
+  <si>
+    <t>30-Aug-2023</t>
+  </si>
+  <si>
+    <t>250105</t>
+  </si>
+  <si>
+    <t>430106</t>
+  </si>
+  <si>
+    <t>426107</t>
+  </si>
+  <si>
+    <t>8200105</t>
+  </si>
+  <si>
+    <t>1800106</t>
+  </si>
+  <si>
+    <t>5353107</t>
+  </si>
+  <si>
+    <t>ICICI0000143</t>
+  </si>
+  <si>
+    <t>ICICI0000144</t>
+  </si>
+  <si>
+    <t>ICICI0000145</t>
+  </si>
+  <si>
+    <t>833859</t>
+  </si>
+  <si>
+    <t>353460</t>
+  </si>
+  <si>
+    <t>345861</t>
+  </si>
+  <si>
+    <t>PF/RD/725/2023</t>
+  </si>
+  <si>
+    <t>PF/HE/726/2023</t>
+  </si>
+  <si>
+    <t>PF/SA/727/2023</t>
   </si>
 </sst>
 </file>
@@ -7436,10 +7433,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8120,7 +8117,7 @@
         <v>373</v>
       </c>
       <c r="AC7" s="355" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD7" s="354" t="s">
         <v>374</v>
@@ -8129,7 +8126,7 @@
         <v>375</v>
       </c>
       <c r="AF7" s="354" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AG7" s="354" t="s">
         <v>376</v>
@@ -8177,7 +8174,7 @@
         <v>390</v>
       </c>
       <c r="AV7" s="360" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AW7" s="353" t="s">
         <v>476</v>
@@ -8225,60 +8222,60 @@
         <v>391</v>
       </c>
       <c r="F8" s="394" t="s">
-        <v>769</v>
+        <v>1103</v>
       </c>
       <c r="G8" s="216"/>
       <c r="H8" s="399"/>
       <c r="I8" s="451" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="J8" s="219" t="s">
         <v>393</v>
       </c>
       <c r="K8" s="403" t="s">
-        <v>789</v>
+        <v>1107</v>
       </c>
       <c r="L8" s="404" t="s">
         <v>394</v>
       </c>
       <c r="M8" s="451" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="N8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O8" s="413" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="P8" s="414" t="s">
         <v>409</v>
       </c>
       <c r="Q8" s="451" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="R8" s="465" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U8" s="426" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="V8" s="425" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="W8" s="427" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="X8" s="216" t="s">
         <v>396</v>
       </c>
       <c r="Y8" s="434" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Z8" s="435" t="s">
         <v>397</v>
@@ -8290,17 +8287,17 @@
         <v>465</v>
       </c>
       <c r="AC8" s="453" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AD8" s="450" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AE8" s="452"/>
       <c r="AF8" s="451" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG8" s="451" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AH8" s="216" t="s">
         <v>7</v>
@@ -8309,25 +8306,25 @@
         <v>402</v>
       </c>
       <c r="AJ8" s="464" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AK8" s="463" t="s">
         <v>32</v>
       </c>
       <c r="AL8" s="465" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AM8" s="217" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AN8" s="216" t="s">
         <v>406</v>
       </c>
       <c r="AO8" s="475" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AP8" s="474" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AQ8" s="216" t="s">
         <v>408</v>
@@ -8336,7 +8333,7 @@
         <v>408</v>
       </c>
       <c r="AS8" s="216" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT8" s="216"/>
       <c r="AU8" s="226" t="s">
@@ -8346,13 +8343,13 @@
         <v>32</v>
       </c>
       <c r="AW8" s="361" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX8" s="227" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AY8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ8" s="228" t="s">
         <v>483</v>
@@ -8364,16 +8361,16 @@
         <v>409</v>
       </c>
       <c r="BC8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD8" s="220" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE8" s="225" t="s">
         <v>61</v>
       </c>
       <c r="BF8" s="362" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -8391,60 +8388,60 @@
         <v>391</v>
       </c>
       <c r="F9" s="396" t="s">
-        <v>769</v>
+        <v>1103</v>
       </c>
       <c r="G9" s="289"/>
       <c r="H9" s="401" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I9" s="398" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>393</v>
       </c>
       <c r="K9" s="407" t="s">
-        <v>752</v>
+        <v>1107</v>
       </c>
       <c r="L9" s="408" t="s">
         <v>394</v>
       </c>
       <c r="M9" s="411" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="N9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O9" s="417" t="s">
-        <v>789</v>
+        <v>1107</v>
       </c>
       <c r="P9" s="418" t="s">
         <v>409</v>
       </c>
       <c r="Q9" s="411" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="R9" s="421" t="s">
         <v>395</v>
       </c>
       <c r="S9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U9" s="429" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="V9" s="423" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="W9" s="421"/>
       <c r="X9" s="163" t="s">
         <v>396</v>
       </c>
       <c r="Y9" s="439" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="Z9" s="440" t="s">
         <v>397</v>
@@ -8457,7 +8454,7 @@
       </c>
       <c r="AC9" s="459"/>
       <c r="AD9" s="448" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AE9" s="458"/>
       <c r="AF9" s="460" t="s">
@@ -8491,16 +8488,16 @@
         <v>407</v>
       </c>
       <c r="AP9" s="478" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AQ9" s="289" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR9" s="289" t="s">
         <v>408</v>
       </c>
       <c r="AS9" s="289" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT9" s="289"/>
       <c r="AU9" s="295" t="s">
@@ -8510,13 +8507,13 @@
         <v>32</v>
       </c>
       <c r="AW9" s="363" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX9" s="296" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AY9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ9" s="20" t="s">
         <v>483</v>
@@ -8528,16 +8525,16 @@
         <v>409</v>
       </c>
       <c r="BC9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD9" s="291" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE9" s="294" t="s">
         <v>61</v>
       </c>
       <c r="BF9" s="364" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:64" s="104" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
@@ -8555,60 +8552,60 @@
         <v>391</v>
       </c>
       <c r="F10" s="395" t="s">
-        <v>657</v>
+        <v>1103</v>
       </c>
       <c r="G10" s="277"/>
       <c r="H10" s="400"/>
       <c r="I10" s="397" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>393</v>
       </c>
       <c r="K10" s="405" t="s">
-        <v>1027</v>
+        <v>1107</v>
       </c>
       <c r="L10" s="406" t="s">
         <v>394</v>
       </c>
       <c r="M10" s="412" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="N10" s="279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O10" s="415" t="s">
-        <v>1028</v>
+        <v>1107</v>
       </c>
       <c r="P10" s="416" t="s">
         <v>409</v>
       </c>
       <c r="Q10" s="412" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="R10" s="422" t="s">
         <v>395</v>
       </c>
       <c r="S10" s="279" t="s">
+        <v>561</v>
+      </c>
+      <c r="T10" s="279" t="s">
+        <v>561</v>
+      </c>
+      <c r="U10" s="428" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V10" s="424" t="s">
+        <v>847</v>
+      </c>
+      <c r="W10" s="422" t="s">
         <v>562</v>
-      </c>
-      <c r="T10" s="279" t="s">
-        <v>562</v>
-      </c>
-      <c r="U10" s="428" t="s">
-        <v>1105</v>
-      </c>
-      <c r="V10" s="424" t="s">
-        <v>848</v>
-      </c>
-      <c r="W10" s="422" t="s">
-        <v>563</v>
       </c>
       <c r="X10" s="164" t="s">
         <v>396</v>
       </c>
       <c r="Y10" s="436" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="Z10" s="437" t="s">
         <v>397</v>
@@ -8620,10 +8617,10 @@
         <v>465</v>
       </c>
       <c r="AC10" s="455" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AD10" s="449" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="AE10" s="454"/>
       <c r="AF10" s="456" t="s">
@@ -8653,10 +8650,10 @@
         <v>407</v>
       </c>
       <c r="AP10" s="476" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AQ10" s="277" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR10" s="277" t="s">
         <v>408</v>
@@ -8668,13 +8665,13 @@
       <c r="AU10" s="285"/>
       <c r="AV10" s="285"/>
       <c r="AW10" s="365" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX10" s="286" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AY10" s="279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ10" s="19" t="s">
         <v>483</v>
@@ -8686,16 +8683,16 @@
         <v>409</v>
       </c>
       <c r="BC10" s="279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD10" s="279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE10" s="282" t="s">
         <v>61</v>
       </c>
       <c r="BF10" s="366" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:64" s="104" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
@@ -8713,11 +8710,11 @@
         <v>391</v>
       </c>
       <c r="F11" s="410" t="s">
-        <v>657</v>
+        <v>1090</v>
       </c>
       <c r="G11" s="461"/>
       <c r="H11" s="472" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I11" s="409"/>
       <c r="J11" s="43" t="s">
@@ -8728,54 +8725,54 @@
         <v>394</v>
       </c>
       <c r="M11" s="409" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="N11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O11" s="410" t="s">
-        <v>522</v>
+        <v>1091</v>
       </c>
       <c r="P11" s="461" t="s">
         <v>409</v>
       </c>
       <c r="Q11" s="409" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="R11" s="419" t="s">
         <v>395</v>
       </c>
       <c r="S11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U11" s="420" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="V11" s="442" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W11" s="419"/>
       <c r="X11" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y11" s="432" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="Z11" s="431" t="s">
         <v>397</v>
       </c>
       <c r="AA11" s="430" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AB11" s="94" t="s">
         <v>465</v>
       </c>
       <c r="AC11" s="443"/>
       <c r="AD11" s="442" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="AE11" s="446"/>
       <c r="AF11" s="444" t="s">
@@ -8789,7 +8786,7 @@
       </c>
       <c r="AI11" s="472"/>
       <c r="AJ11" s="472" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AK11" s="461" t="s">
         <v>32</v>
@@ -8801,28 +8798,28 @@
       <c r="AN11" s="461"/>
       <c r="AO11" s="473"/>
       <c r="AP11" s="472" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ11" s="461" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR11" s="461" t="s">
         <v>408</v>
       </c>
       <c r="AS11" s="461" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT11" s="461"/>
       <c r="AU11" s="68"/>
       <c r="AV11" s="68"/>
       <c r="AW11" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX11" s="108" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AY11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ11" s="43" t="s">
         <v>483</v>
@@ -8834,16 +8831,16 @@
         <v>409</v>
       </c>
       <c r="BC11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD11" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE11" s="100" t="s">
         <v>61</v>
       </c>
       <c r="BF11" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:64" s="104" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
@@ -8861,60 +8858,60 @@
         <v>391</v>
       </c>
       <c r="F12" s="410" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="G12" s="461"/>
       <c r="H12" s="472"/>
       <c r="I12" s="409" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="K12" s="98" t="s">
-        <v>640</v>
+      <c r="K12" s="410" t="s">
+        <v>1091</v>
       </c>
       <c r="L12" s="402" t="s">
         <v>394</v>
       </c>
       <c r="M12" s="409" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="N12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O12" s="410" t="s">
-        <v>657</v>
+        <v>1091</v>
       </c>
       <c r="P12" s="461" t="s">
         <v>409</v>
       </c>
       <c r="Q12" s="409" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="R12" s="419" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="S12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U12" s="420" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="V12" s="90" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W12" s="419" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="X12" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y12" s="432" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="Z12" s="430" t="s">
         <v>397</v>
@@ -8926,10 +8923,10 @@
         <v>465</v>
       </c>
       <c r="AC12" s="100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD12" s="442" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="AE12" s="446"/>
       <c r="AF12" s="101" t="s">
@@ -8943,7 +8940,7 @@
       </c>
       <c r="AI12" s="472"/>
       <c r="AJ12" s="472" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK12" s="461"/>
       <c r="AL12" s="51" t="s">
@@ -8957,28 +8954,28 @@
         <v>407</v>
       </c>
       <c r="AP12" s="472" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ12" s="461" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR12" s="461" t="s">
         <v>408</v>
       </c>
       <c r="AS12" s="461" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT12" s="461"/>
       <c r="AU12" s="68"/>
       <c r="AV12" s="68"/>
       <c r="AW12" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX12" s="108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AY12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ12" s="43" t="s">
         <v>483</v>
@@ -8990,16 +8987,16 @@
         <v>409</v>
       </c>
       <c r="BC12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD12" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE12" s="100" t="s">
         <v>61</v>
       </c>
       <c r="BF12" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BG12" s="359"/>
     </row>
@@ -9018,62 +9015,62 @@
         <v>391</v>
       </c>
       <c r="F13" s="410" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G13" s="461" t="s">
         <v>392</v>
       </c>
       <c r="H13" s="472"/>
       <c r="I13" s="409" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K13" s="98" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L13" s="402" t="s">
         <v>394</v>
       </c>
       <c r="M13" s="409" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="N13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O13" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P13" s="461" t="s">
         <v>409</v>
       </c>
       <c r="Q13" s="409" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="R13" s="419" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U13" s="420" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="V13" s="90" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W13" s="419" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X13" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y13" s="432" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="Z13" s="430" t="s">
         <v>397</v>
@@ -9085,26 +9082,26 @@
         <v>472</v>
       </c>
       <c r="AC13" s="100" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AD13" s="442" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="AE13" s="358"/>
       <c r="AF13" s="101" t="s">
         <v>401</v>
       </c>
       <c r="AG13" s="102" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AH13" s="461" t="s">
         <v>7</v>
       </c>
       <c r="AI13" s="472" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ13" s="472" t="s">
         <v>589</v>
-      </c>
-      <c r="AJ13" s="472" t="s">
-        <v>590</v>
       </c>
       <c r="AK13" s="461" t="s">
         <v>32</v>
@@ -9122,7 +9119,7 @@
         <v>407</v>
       </c>
       <c r="AP13" s="472" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AQ13" s="461" t="s">
         <v>408</v>
@@ -9135,13 +9132,13 @@
       <c r="AU13" s="377"/>
       <c r="AV13" s="68"/>
       <c r="AW13" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX13" s="108" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AY13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ13" s="43" t="s">
         <v>483</v>
@@ -9153,16 +9150,16 @@
         <v>409</v>
       </c>
       <c r="BC13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD13" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE13" s="100" t="s">
         <v>61</v>
       </c>
       <c r="BF13" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BG13" s="359"/>
     </row>
@@ -9181,60 +9178,60 @@
         <v>391</v>
       </c>
       <c r="F14" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
       <c r="I14" s="381" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L14" s="105" t="s">
         <v>394</v>
       </c>
       <c r="M14" s="409" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="N14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O14" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P14" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q14" s="409" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="R14" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U14" s="420" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="V14" s="90" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="W14" s="92" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X14" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y14" s="432" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="Z14" s="93" t="s">
         <v>397</v>
@@ -9246,30 +9243,30 @@
         <v>472</v>
       </c>
       <c r="AC14" s="100" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD14" s="380" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="AE14" s="106"/>
       <c r="AF14" s="101" t="s">
+        <v>593</v>
+      </c>
+      <c r="AG14" s="102" t="s">
         <v>594</v>
-      </c>
-      <c r="AG14" s="102" t="s">
-        <v>595</v>
       </c>
       <c r="AH14" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI14" s="45"/>
       <c r="AJ14" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AK14" s="44" t="s">
         <v>32</v>
       </c>
       <c r="AL14" s="51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM14" s="45" t="s">
         <v>405</v>
@@ -9281,7 +9278,7 @@
         <v>407</v>
       </c>
       <c r="AP14" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AQ14" s="44" t="s">
         <v>408</v>
@@ -9290,7 +9287,7 @@
         <v>408</v>
       </c>
       <c r="AS14" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT14" s="68"/>
       <c r="AU14" s="68"/>
@@ -9298,13 +9295,13 @@
         <v>32</v>
       </c>
       <c r="AW14" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX14" s="108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AY14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ14" s="43" t="s">
         <v>483</v>
@@ -9316,16 +9313,16 @@
         <v>409</v>
       </c>
       <c r="BC14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD14" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE14" s="100" t="s">
         <v>61</v>
       </c>
       <c r="BF14" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BG14" s="27"/>
     </row>
@@ -9341,60 +9338,60 @@
         <v>391</v>
       </c>
       <c r="F15" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G15" s="461"/>
       <c r="H15" s="472"/>
       <c r="I15" s="381" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K15" s="98" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L15" s="402" t="s">
         <v>394</v>
       </c>
       <c r="M15" s="409" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="N15" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O15" s="410" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P15" s="461" t="s">
         <v>409</v>
       </c>
       <c r="Q15" s="409" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="R15" s="419" t="s">
+        <v>604</v>
+      </c>
+      <c r="S15" s="446" t="s">
+        <v>561</v>
+      </c>
+      <c r="T15" s="446" t="s">
+        <v>561</v>
+      </c>
+      <c r="U15" s="420" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V15" s="90" t="s">
+        <v>852</v>
+      </c>
+      <c r="W15" s="419" t="s">
         <v>605</v>
-      </c>
-      <c r="S15" s="446" t="s">
-        <v>562</v>
-      </c>
-      <c r="T15" s="446" t="s">
-        <v>562</v>
-      </c>
-      <c r="U15" s="420" t="s">
-        <v>1066</v>
-      </c>
-      <c r="V15" s="90" t="s">
-        <v>853</v>
-      </c>
-      <c r="W15" s="419" t="s">
-        <v>606</v>
       </c>
       <c r="X15" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y15" s="432" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="Z15" s="430" t="s">
         <v>397</v>
@@ -9406,23 +9403,23 @@
         <v>453</v>
       </c>
       <c r="AC15" s="100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AD15" s="442" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AE15" s="446"/>
       <c r="AF15" s="101" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG15" s="102" t="s">
         <v>609</v>
-      </c>
-      <c r="AG15" s="102" t="s">
-        <v>610</v>
       </c>
       <c r="AH15" s="461" t="s">
         <v>7</v>
       </c>
       <c r="AI15" s="472" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ15" s="472"/>
       <c r="AK15" s="461" t="s">
@@ -9438,10 +9435,10 @@
         <v>406</v>
       </c>
       <c r="AO15" s="419" t="s">
+        <v>610</v>
+      </c>
+      <c r="AP15" s="472" t="s">
         <v>611</v>
-      </c>
-      <c r="AP15" s="472" t="s">
-        <v>612</v>
       </c>
       <c r="AQ15" s="461" t="s">
         <v>408</v>
@@ -9456,13 +9453,13 @@
       <c r="AU15" s="68"/>
       <c r="AV15" s="68"/>
       <c r="AW15" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX15" s="108" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AY15" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ15" s="43" t="s">
         <v>409</v>
@@ -9474,16 +9471,16 @@
         <v>409</v>
       </c>
       <c r="BC15" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD15" s="446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE15" s="100" t="s">
         <v>120</v>
       </c>
       <c r="BF15" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:64" s="104" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -9495,10 +9492,10 @@
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="90" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F16" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="45"/>
@@ -9511,41 +9508,41 @@
         <v>394</v>
       </c>
       <c r="M16" s="409" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="N16" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O16" s="98" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P16" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q16" s="409" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="R16" s="419" t="s">
+        <v>891</v>
+      </c>
+      <c r="S16" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="T16" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="U16" s="420" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V16" s="90" t="s">
         <v>892</v>
-      </c>
-      <c r="S16" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="T16" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="U16" s="420" t="s">
-        <v>1067</v>
-      </c>
-      <c r="V16" s="90" t="s">
-        <v>893</v>
       </c>
       <c r="W16" s="92"/>
       <c r="X16" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y16" s="432" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="Z16" s="93" t="s">
         <v>397</v>
@@ -9558,60 +9555,60 @@
       </c>
       <c r="AC16" s="100"/>
       <c r="AD16" s="380" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="AE16" s="106"/>
       <c r="AF16" s="101" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG16" s="102" t="s">
         <v>609</v>
-      </c>
-      <c r="AG16" s="102" t="s">
-        <v>610</v>
       </c>
       <c r="AH16" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI16" s="45"/>
       <c r="AJ16" s="45" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AK16" s="44" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AL16" s="51" t="s">
         <v>400</v>
       </c>
       <c r="AM16" s="45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AN16" s="44" t="s">
         <v>406</v>
       </c>
       <c r="AO16" s="103" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AP16" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AQ16" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR16" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS16" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT16" s="44"/>
       <c r="AU16" s="68"/>
       <c r="AV16" s="68"/>
       <c r="AW16" s="367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX16" s="108" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AY16" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ16" s="43" t="s">
         <v>409</v>
@@ -9623,16 +9620,16 @@
         <v>409</v>
       </c>
       <c r="BC16" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD16" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE16" s="100" t="s">
         <v>62</v>
       </c>
       <c r="BF16" s="368" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="2:58" s="104" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9647,58 +9644,58 @@
         <v>391</v>
       </c>
       <c r="F17" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
       <c r="I17" s="381" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K17" s="98" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L17" s="105" t="s">
         <v>394</v>
       </c>
       <c r="M17" s="409" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="N17" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O17" s="98" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P17" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q17" s="409" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="R17" s="92" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="S17" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T17" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U17" s="420" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="V17" s="90" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W17" s="92"/>
       <c r="X17" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Y17" s="432" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Z17" s="93" t="s">
         <v>397</v>
@@ -9710,28 +9707,28 @@
         <v>461</v>
       </c>
       <c r="AC17" s="100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD17" s="380" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AE17" s="106"/>
       <c r="AF17" s="101" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG17" s="102" t="s">
         <v>609</v>
-      </c>
-      <c r="AG17" s="102" t="s">
-        <v>610</v>
       </c>
       <c r="AH17" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="45" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AK17" s="44"/>
       <c r="AL17" s="51" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AM17" s="45" t="s">
         <v>405</v>
@@ -9740,31 +9737,31 @@
         <v>406</v>
       </c>
       <c r="AO17" s="103" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AP17" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AQ17" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR17" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS17" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT17" s="44"/>
       <c r="AU17" s="68"/>
       <c r="AV17" s="68"/>
       <c r="AW17" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX17" s="370" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AY17" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ17" s="372" t="s">
         <v>409</v>
@@ -9776,16 +9773,16 @@
         <v>409</v>
       </c>
       <c r="BC17" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD17" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE17" s="375" t="s">
         <v>60</v>
       </c>
       <c r="BF17" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="2:58" s="104" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -9797,63 +9794,63 @@
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="90" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F18" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="381" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K18" s="98" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L18" s="105" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M18" s="409" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="N18" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O18" s="98" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q18" s="409" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="R18" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S18" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T18" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U18" s="420" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="V18" s="90" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W18" s="92" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="X18" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y18" s="432" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="Z18" s="93" t="s">
         <v>397</v>
@@ -9865,28 +9862,28 @@
         <v>465</v>
       </c>
       <c r="AC18" s="100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD18" s="380" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="AE18" s="106"/>
       <c r="AF18" s="101" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AG18" s="102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH18" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AK18" s="44"/>
       <c r="AL18" s="51" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AM18" s="45" t="s">
         <v>405</v>
@@ -9895,31 +9892,31 @@
         <v>406</v>
       </c>
       <c r="AO18" s="103" t="s">
+        <v>914</v>
+      </c>
+      <c r="AP18" s="45" t="s">
         <v>915</v>
       </c>
-      <c r="AP18" s="45" t="s">
-        <v>916</v>
-      </c>
       <c r="AQ18" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR18" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS18" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT18" s="44"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX18" s="370" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AY18" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ18" s="372" t="s">
         <v>409</v>
@@ -9931,16 +9928,16 @@
         <v>409</v>
       </c>
       <c r="BC18" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD18" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE18" s="375" t="s">
         <v>107</v>
       </c>
       <c r="BF18" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="2:58" s="104" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -9952,63 +9949,63 @@
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="90" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F19" s="410" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
       <c r="I19" s="381" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K19" s="98" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L19" s="105" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M19" s="409" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="N19" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O19" s="98" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P19" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q19" s="409" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="R19" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S19" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T19" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U19" s="420" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V19" s="90" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W19" s="92" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="X19" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y19" s="432" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="Z19" s="93" t="s">
         <v>397</v>
@@ -10020,28 +10017,28 @@
         <v>467</v>
       </c>
       <c r="AC19" s="100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD19" s="380" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AE19" s="106"/>
       <c r="AF19" s="101" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AG19" s="102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH19" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AK19" s="44"/>
       <c r="AL19" s="51" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AM19" s="45" t="s">
         <v>405</v>
@@ -10050,31 +10047,31 @@
         <v>406</v>
       </c>
       <c r="AO19" s="103" t="s">
+        <v>914</v>
+      </c>
+      <c r="AP19" s="45" t="s">
         <v>915</v>
       </c>
-      <c r="AP19" s="45" t="s">
-        <v>916</v>
-      </c>
       <c r="AQ19" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR19" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS19" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT19" s="44"/>
       <c r="AU19" s="68"/>
       <c r="AV19" s="68"/>
       <c r="AW19" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX19" s="370" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AY19" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ19" s="372" t="s">
         <v>409</v>
@@ -10086,16 +10083,16 @@
         <v>409</v>
       </c>
       <c r="BC19" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD19" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE19" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF19" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="2:58" s="104" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10110,95 +10107,95 @@
         <v>391</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="45"/>
       <c r="I20" s="96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K20" s="98" t="s">
+        <v>922</v>
+      </c>
+      <c r="L20" s="105" t="s">
+        <v>917</v>
+      </c>
+      <c r="M20" s="409" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N20" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="O20" s="98" t="s">
         <v>923</v>
-      </c>
-      <c r="L20" s="105" t="s">
-        <v>918</v>
-      </c>
-      <c r="M20" s="409" t="s">
-        <v>1056</v>
-      </c>
-      <c r="N20" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="O20" s="98" t="s">
-        <v>924</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q20" s="409" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="R20" s="92" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S20" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T20" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U20" s="420" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="V20" s="90" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W20" s="92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X20" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y20" s="432" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Z20" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA20" s="89" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB20" s="94" t="s">
         <v>462</v>
       </c>
       <c r="AC20" s="100" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AD20" s="380" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AE20" s="106"/>
       <c r="AF20" s="101" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AG20" s="102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH20" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AK20" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AL20" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM20" s="45" t="s">
         <v>405</v>
@@ -10207,31 +10204,31 @@
         <v>406</v>
       </c>
       <c r="AO20" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP20" s="45" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AQ20" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR20" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS20" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT20" s="44"/>
       <c r="AU20" s="68"/>
       <c r="AV20" s="68"/>
       <c r="AW20" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX20" s="370" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AY20" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ20" s="372" t="s">
         <v>409</v>
@@ -10243,16 +10240,16 @@
         <v>409</v>
       </c>
       <c r="BC20" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD20" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE20" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF20" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="2:58" s="104" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -10263,101 +10260,101 @@
         <v>421</v>
       </c>
       <c r="D21" s="667" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E21" s="559" t="s">
         <v>391</v>
       </c>
       <c r="F21" s="586" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G21" s="560"/>
       <c r="H21" s="561"/>
       <c r="I21" s="587" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="J21" s="562" t="s">
         <v>393</v>
       </c>
       <c r="K21" s="586" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L21" s="563" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M21" s="564" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="N21" s="565" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O21" s="586" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P21" s="560" t="s">
         <v>409</v>
       </c>
       <c r="Q21" s="564" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="R21" s="92" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S21" s="565" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T21" s="565" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U21" s="566" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="V21" s="559" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W21" s="92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X21" s="556" t="s">
         <v>396</v>
       </c>
       <c r="Y21" s="567" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="Z21" s="568" t="s">
         <v>397</v>
       </c>
       <c r="AA21" s="569" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB21" s="570" t="s">
         <v>469</v>
       </c>
       <c r="AC21" s="571" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AD21" s="572" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="AE21" s="565"/>
       <c r="AF21" s="573" t="s">
         <v>401</v>
       </c>
       <c r="AG21" s="574" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AH21" s="560" t="s">
         <v>7</v>
       </c>
       <c r="AI21" s="561"/>
       <c r="AJ21" s="561" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AK21" s="560" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL21" s="575" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM21" s="561" t="s">
         <v>405</v>
@@ -10366,31 +10363,31 @@
         <v>406</v>
       </c>
       <c r="AO21" s="576" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP21" s="561" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AQ21" s="560" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR21" s="560" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS21" s="560" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT21" s="560"/>
       <c r="AU21" s="577"/>
       <c r="AV21" s="577"/>
       <c r="AW21" s="578" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX21" s="579" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY21" s="580" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ21" s="581" t="s">
         <v>409</v>
@@ -10402,16 +10399,16 @@
         <v>409</v>
       </c>
       <c r="BC21" s="580" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD21" s="580" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE21" s="584" t="s">
         <v>62</v>
       </c>
       <c r="BF21" s="585" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="2:58" s="104" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -10426,95 +10423,95 @@
         <v>391</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="45" t="s">
+        <v>946</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>994</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="K22" s="98" t="s">
+        <v>944</v>
+      </c>
+      <c r="L22" s="105" t="s">
         <v>947</v>
       </c>
-      <c r="I22" s="96" t="s">
-        <v>995</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>910</v>
-      </c>
-      <c r="K22" s="98" t="s">
+      <c r="M22" s="378" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N22" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="O22" s="98" t="s">
         <v>945</v>
-      </c>
-      <c r="L22" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="M22" s="378" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N22" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="O22" s="98" t="s">
-        <v>946</v>
       </c>
       <c r="P22" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q22" s="378" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R22" s="92" t="s">
+        <v>948</v>
+      </c>
+      <c r="S22" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="T22" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="U22" s="107" t="s">
         <v>949</v>
       </c>
-      <c r="S22" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="T22" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="U22" s="107" t="s">
+      <c r="V22" s="90" t="s">
         <v>950</v>
-      </c>
-      <c r="V22" s="90" t="s">
-        <v>951</v>
       </c>
       <c r="W22" s="92"/>
       <c r="X22" s="87" t="s">
         <v>396</v>
       </c>
       <c r="Y22" s="379" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Z22" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA22" s="89" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB22" s="94" t="s">
         <v>471</v>
       </c>
       <c r="AC22" s="100" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AD22" s="380" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AE22" s="106"/>
       <c r="AF22" s="101" t="s">
+        <v>951</v>
+      </c>
+      <c r="AG22" s="102" t="s">
         <v>952</v>
-      </c>
-      <c r="AG22" s="102" t="s">
-        <v>953</v>
       </c>
       <c r="AH22" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="45" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AK22" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL22" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM22" s="45" t="s">
         <v>405</v>
@@ -10523,31 +10520,31 @@
         <v>406</v>
       </c>
       <c r="AO22" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP22" s="45" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AQ22" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR22" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS22" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT22" s="44"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="68"/>
       <c r="AW22" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX22" s="370" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY22" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ22" s="372" t="s">
         <v>409</v>
@@ -10559,16 +10556,16 @@
         <v>409</v>
       </c>
       <c r="BC22" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD22" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE22" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF22" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="2:58" s="104" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -10583,95 +10580,95 @@
         <v>391</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="45"/>
       <c r="I23" s="96" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K23" s="98" t="s">
+        <v>956</v>
+      </c>
+      <c r="L23" s="105" t="s">
+        <v>947</v>
+      </c>
+      <c r="M23" s="95" t="s">
         <v>957</v>
       </c>
-      <c r="L23" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="M23" s="95" t="s">
+      <c r="N23" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="O23" s="98" t="s">
         <v>958</v>
-      </c>
-      <c r="N23" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="O23" s="98" t="s">
-        <v>959</v>
       </c>
       <c r="P23" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q23" s="378" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R23" s="92" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="S23" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T23" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U23" s="107" t="s">
+        <v>959</v>
+      </c>
+      <c r="V23" s="90" t="s">
         <v>960</v>
       </c>
-      <c r="V23" s="90" t="s">
-        <v>961</v>
-      </c>
       <c r="W23" s="92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X23" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Y23" s="379" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Z23" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA23" s="89" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB23" s="94" t="s">
         <v>450</v>
       </c>
       <c r="AC23" s="100" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AD23" s="380" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AE23" s="106"/>
       <c r="AF23" s="101" t="s">
+        <v>951</v>
+      </c>
+      <c r="AG23" s="102" t="s">
         <v>952</v>
-      </c>
-      <c r="AG23" s="102" t="s">
-        <v>953</v>
       </c>
       <c r="AH23" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI23" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ23" s="45"/>
       <c r="AK23" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL23" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM23" s="45" t="s">
         <v>405</v>
@@ -10680,16 +10677,16 @@
         <v>406</v>
       </c>
       <c r="AO23" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP23" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AQ23" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR23" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS23" s="44" t="s">
         <v>393</v>
@@ -10698,13 +10695,13 @@
       <c r="AU23" s="68"/>
       <c r="AV23" s="68"/>
       <c r="AW23" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX23" s="370" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY23" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ23" s="372" t="s">
         <v>409</v>
@@ -10716,16 +10713,16 @@
         <v>409</v>
       </c>
       <c r="BC23" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD23" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE23" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF23" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="2:58" s="104" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -10740,97 +10737,97 @@
         <v>391</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="45" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I24" s="96" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L24" s="105" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M24" s="95" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N24" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O24" s="98" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q24" s="378" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="R24" s="92" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="S24" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T24" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U24" s="107" t="s">
+        <v>965</v>
+      </c>
+      <c r="V24" s="90" t="s">
         <v>966</v>
       </c>
-      <c r="V24" s="90" t="s">
-        <v>967</v>
-      </c>
       <c r="W24" s="92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X24" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y24" s="379" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="Z24" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA24" s="89" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB24" s="94" t="s">
         <v>445</v>
       </c>
       <c r="AC24" s="100" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AD24" s="380" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AE24" s="106"/>
       <c r="AF24" s="101" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AG24" s="102" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH24" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI24" s="45" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AJ24" s="45"/>
       <c r="AK24" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL24" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM24" s="45" t="s">
         <v>405</v>
@@ -10839,16 +10836,16 @@
         <v>406</v>
       </c>
       <c r="AO24" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP24" s="45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AQ24" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR24" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS24" s="44" t="s">
         <v>393</v>
@@ -10857,13 +10854,13 @@
       <c r="AU24" s="68"/>
       <c r="AV24" s="68"/>
       <c r="AW24" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX24" s="370" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY24" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ24" s="372" t="s">
         <v>409</v>
@@ -10875,16 +10872,16 @@
         <v>409</v>
       </c>
       <c r="BC24" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD24" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE24" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF24" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="2:58" s="104" customFormat="1" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -10899,95 +10896,95 @@
         <v>391</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G25" s="44"/>
       <c r="H25" s="45"/>
       <c r="I25" s="96" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K25" s="98" t="s">
+        <v>973</v>
+      </c>
+      <c r="L25" s="105" t="s">
+        <v>947</v>
+      </c>
+      <c r="M25" s="95" t="s">
         <v>974</v>
       </c>
-      <c r="L25" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="M25" s="95" t="s">
+      <c r="N25" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="O25" s="98" t="s">
         <v>975</v>
-      </c>
-      <c r="N25" s="106" t="s">
-        <v>562</v>
-      </c>
-      <c r="O25" s="98" t="s">
-        <v>976</v>
       </c>
       <c r="P25" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q25" s="378" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R25" s="92" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S25" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T25" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U25" s="107" t="s">
+        <v>977</v>
+      </c>
+      <c r="V25" s="90" t="s">
         <v>978</v>
       </c>
-      <c r="V25" s="90" t="s">
-        <v>979</v>
-      </c>
       <c r="W25" s="92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X25" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Y25" s="379" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Z25" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA25" s="89" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AB25" s="94" t="s">
         <v>447</v>
       </c>
       <c r="AC25" s="100" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AD25" s="380" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AE25" s="106"/>
       <c r="AF25" s="101" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AG25" s="102" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AH25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="AI25" s="45"/>
       <c r="AJ25" s="45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AK25" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL25" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM25" s="45" t="s">
         <v>405</v>
@@ -10996,31 +10993,31 @@
         <v>406</v>
       </c>
       <c r="AO25" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP25" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AQ25" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR25" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS25" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT25" s="44"/>
       <c r="AU25" s="68"/>
       <c r="AV25" s="68"/>
       <c r="AW25" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX25" s="370" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY25" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ25" s="372" t="s">
         <v>409</v>
@@ -11032,16 +11029,16 @@
         <v>409</v>
       </c>
       <c r="BC25" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD25" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE25" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF25" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="2:58" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -11056,79 +11053,79 @@
         <v>391</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="45"/>
       <c r="I26" s="96" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>393</v>
       </c>
       <c r="K26" s="98" t="s">
+        <v>984</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>947</v>
+      </c>
+      <c r="M26" s="95" t="s">
         <v>985</v>
       </c>
-      <c r="L26" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="M26" s="95" t="s">
-        <v>986</v>
-      </c>
       <c r="N26" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O26" s="98" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P26" s="44" t="s">
         <v>409</v>
       </c>
       <c r="Q26" s="378" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R26" s="92" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="S26" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T26" s="106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U26" s="107" t="s">
+        <v>986</v>
+      </c>
+      <c r="V26" s="90" t="s">
         <v>987</v>
       </c>
-      <c r="V26" s="90" t="s">
+      <c r="W26" s="92" t="s">
+        <v>812</v>
+      </c>
+      <c r="X26" s="87" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y26" s="99" t="s">
         <v>988</v>
-      </c>
-      <c r="W26" s="92" t="s">
-        <v>813</v>
-      </c>
-      <c r="X26" s="87" t="s">
-        <v>601</v>
-      </c>
-      <c r="Y26" s="99" t="s">
-        <v>989</v>
       </c>
       <c r="Z26" s="93" t="s">
         <v>397</v>
       </c>
       <c r="AA26" s="89" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AB26" s="94" t="s">
         <v>461</v>
       </c>
       <c r="AC26" s="100" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AD26" s="380" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AE26" s="106"/>
       <c r="AF26" s="101" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AG26" s="102" t="s">
         <v>396</v>
@@ -11138,13 +11135,13 @@
       </c>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="45" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AK26" s="44" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AL26" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM26" s="45" t="s">
         <v>405</v>
@@ -11153,31 +11150,31 @@
         <v>406</v>
       </c>
       <c r="AO26" s="103" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AP26" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AQ26" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AR26" s="44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AS26" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT26" s="44"/>
       <c r="AU26" s="68"/>
       <c r="AV26" s="68"/>
       <c r="AW26" s="369" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX26" s="370" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AY26" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AZ26" s="372" t="s">
         <v>409</v>
@@ -11189,16 +11186,16 @@
         <v>409</v>
       </c>
       <c r="BC26" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BD26" s="371" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BE26" s="375" t="s">
         <v>62</v>
       </c>
       <c r="BF26" s="376" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -11594,7 +11591,7 @@
         <v>516</v>
       </c>
       <c r="E8" s="233" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F8" s="234" t="s">
         <v>516</v>
@@ -11612,76 +11609,76 @@
         <v>520</v>
       </c>
       <c r="K8" s="235" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L8" s="236" t="s">
+        <v>697</v>
+      </c>
+      <c r="M8" s="237" t="s">
+        <v>717</v>
+      </c>
+      <c r="N8" s="238" t="s">
+        <v>845</v>
+      </c>
+      <c r="O8" s="240" t="s">
+        <v>900</v>
+      </c>
+      <c r="P8" s="239" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q8" s="237" t="s">
+        <v>647</v>
+      </c>
+      <c r="R8" s="238" t="s">
+        <v>723</v>
+      </c>
+      <c r="S8" s="240" t="s">
+        <v>887</v>
+      </c>
+      <c r="T8" s="237" t="s">
+        <v>734</v>
+      </c>
+      <c r="U8" s="238" t="s">
+        <v>724</v>
+      </c>
+      <c r="V8" s="240" t="s">
+        <v>725</v>
+      </c>
+      <c r="W8" s="241" t="s">
+        <v>522</v>
+      </c>
+      <c r="X8" s="242" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y8" s="243" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z8" s="244" t="s">
         <v>698</v>
       </c>
-      <c r="M8" s="237" t="s">
-        <v>718</v>
-      </c>
-      <c r="N8" s="238" t="s">
-        <v>846</v>
-      </c>
-      <c r="O8" s="240" t="s">
-        <v>901</v>
-      </c>
-      <c r="P8" s="239" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q8" s="237" t="s">
-        <v>648</v>
-      </c>
-      <c r="R8" s="238" t="s">
+      <c r="AA8" s="238" t="s">
         <v>724</v>
       </c>
-      <c r="S8" s="240" t="s">
-        <v>888</v>
-      </c>
-      <c r="T8" s="237" t="s">
+      <c r="AB8" s="240" t="s">
         <v>735</v>
       </c>
-      <c r="U8" s="238" t="s">
-        <v>725</v>
-      </c>
-      <c r="V8" s="240" t="s">
-        <v>726</v>
-      </c>
-      <c r="W8" s="241" t="s">
-        <v>523</v>
-      </c>
-      <c r="X8" s="242" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y8" s="243" t="s">
-        <v>524</v>
-      </c>
-      <c r="Z8" s="244" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA8" s="238" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB8" s="240" t="s">
+      <c r="AC8" s="227" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD8" s="245" t="s">
         <v>736</v>
       </c>
-      <c r="AC8" s="227" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD8" s="245" t="s">
+      <c r="AE8" s="245" t="s">
         <v>737</v>
       </c>
-      <c r="AE8" s="245" t="s">
-        <v>738</v>
-      </c>
       <c r="AF8" s="242" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG8" s="242" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH8" s="216" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI8" s="226" t="s">
         <v>32</v>
@@ -11690,13 +11687,13 @@
         <v>32</v>
       </c>
       <c r="AK8" s="217" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL8" s="216" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM8" s="246" t="s">
         <v>527</v>
-      </c>
-      <c r="AL8" s="216" t="s">
-        <v>569</v>
-      </c>
-      <c r="AM8" s="246" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11710,13 +11707,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="493" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="494" t="s">
+        <v>703</v>
+      </c>
+      <c r="F9" s="495" t="s">
         <v>598</v>
-      </c>
-      <c r="E9" s="494" t="s">
-        <v>704</v>
-      </c>
-      <c r="F9" s="495" t="s">
-        <v>599</v>
       </c>
       <c r="G9" s="496" t="s">
         <v>22</v>
@@ -11725,82 +11722,82 @@
         <v>516</v>
       </c>
       <c r="I9" s="494" t="s">
+        <v>599</v>
+      </c>
+      <c r="J9" s="495" t="s">
         <v>600</v>
       </c>
-      <c r="J9" s="495" t="s">
-        <v>601</v>
-      </c>
       <c r="K9" s="497" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L9" s="498" t="s">
+        <v>688</v>
+      </c>
+      <c r="M9" s="499" t="s">
+        <v>684</v>
+      </c>
+      <c r="N9" s="500" t="s">
+        <v>566</v>
+      </c>
+      <c r="O9" s="501" t="s">
+        <v>692</v>
+      </c>
+      <c r="P9" s="502" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q9" s="499" t="s">
         <v>689</v>
       </c>
-      <c r="M9" s="499" t="s">
-        <v>685</v>
-      </c>
-      <c r="N9" s="500" t="s">
-        <v>567</v>
-      </c>
-      <c r="O9" s="501" t="s">
-        <v>693</v>
-      </c>
-      <c r="P9" s="502" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q9" s="499" t="s">
-        <v>690</v>
-      </c>
       <c r="R9" s="500" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S9" s="501" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T9" s="499" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="U9" s="500" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V9" s="501" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="W9" s="503" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X9" s="504" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y9" s="505" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z9" s="506" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA9" s="500" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB9" s="501" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC9" s="507" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD9" s="508" t="s">
         <v>700</v>
       </c>
-      <c r="AA9" s="500" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB9" s="501" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC9" s="507" t="s">
-        <v>656</v>
-      </c>
-      <c r="AD9" s="508" t="s">
-        <v>701</v>
-      </c>
       <c r="AE9" s="508" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF9" s="504" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG9" s="504" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH9" s="509" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI9" s="510" t="s">
         <v>32</v>
@@ -11809,13 +11806,13 @@
         <v>32</v>
       </c>
       <c r="AK9" s="496" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AL9" s="509" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM9" s="511" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -11829,97 +11826,97 @@
         <v>26</v>
       </c>
       <c r="D10" s="284" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E10" s="300" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F10" s="301" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G10" s="278" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="301" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I10" s="300" t="s">
+        <v>599</v>
+      </c>
+      <c r="J10" s="301" t="s">
         <v>600</v>
       </c>
-      <c r="J10" s="301" t="s">
-        <v>601</v>
-      </c>
       <c r="K10" s="302" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L10" s="303" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O10" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P10" s="304" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q10" s="61" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R10" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S10" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="T10" s="61" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U10" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V10" s="63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W10" s="305" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X10" s="306" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y10" s="307" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z10" s="308" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AA10" s="62" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AB10" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC10" s="286" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AD10" s="309" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AE10" s="309" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF10" s="306" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG10" s="306" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH10" s="277" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI10" s="285" t="s">
         <v>32</v>
@@ -11928,13 +11925,13 @@
         <v>32</v>
       </c>
       <c r="AK10" s="278" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AL10" s="277" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM10" s="310" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -11948,97 +11945,97 @@
         <v>26</v>
       </c>
       <c r="D11" s="575" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E11" s="590" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F11" s="591" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G11" s="561" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="591" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I11" s="590" t="s">
+        <v>599</v>
+      </c>
+      <c r="J11" s="591" t="s">
         <v>600</v>
       </c>
-      <c r="J11" s="591" t="s">
-        <v>601</v>
-      </c>
       <c r="K11" s="592" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L11" s="593" t="s">
+        <v>690</v>
+      </c>
+      <c r="M11" s="594" t="s">
         <v>691</v>
       </c>
-      <c r="M11" s="594" t="s">
-        <v>692</v>
-      </c>
       <c r="N11" s="595" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O11" s="596" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P11" s="597" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q11" s="594" t="s">
+        <v>645</v>
+      </c>
+      <c r="R11" s="595" t="s">
         <v>646</v>
       </c>
-      <c r="R11" s="595" t="s">
-        <v>647</v>
-      </c>
       <c r="S11" s="596" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T11" s="594" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U11" s="595" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="V11" s="596" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W11" s="598" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X11" s="599" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y11" s="600" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z11" s="601" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AA11" s="595" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AB11" s="596" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC11" s="602" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AD11" s="603" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AE11" s="603" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF11" s="599" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG11" s="599" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH11" s="560" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI11" s="577" t="s">
         <v>32</v>
@@ -12047,13 +12044,13 @@
         <v>32</v>
       </c>
       <c r="AK11" s="561" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AL11" s="560" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM11" s="604" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -12067,97 +12064,97 @@
         <v>519</v>
       </c>
       <c r="D12" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>746</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="H12" s="53" t="s">
         <v>754</v>
       </c>
-      <c r="E12" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G12" s="45" t="s">
+      <c r="I12" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="J12" s="53" t="s">
         <v>755</v>
       </c>
-      <c r="I12" s="52" t="s">
-        <v>817</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>756</v>
-      </c>
       <c r="K12" s="54" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P12" s="60" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q12" s="57" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S12" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T12" s="61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U12" s="62" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W12" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X12" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y12" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="X12" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y12" s="66" t="s">
-        <v>524</v>
-      </c>
       <c r="Z12" s="67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AA12" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB12" s="59" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AC12" s="56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AD12" s="49" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AE12" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG12" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH12" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI12" s="68" t="s">
         <v>32</v>
@@ -12166,13 +12163,13 @@
         <v>32</v>
       </c>
       <c r="AK12" s="45" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AL12" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM12" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -12183,100 +12180,100 @@
         <v>6</v>
       </c>
       <c r="C13" s="109" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="E13" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="H13" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>748</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G13" s="45" t="s">
+      <c r="I13" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="H13" s="53" t="s">
-        <v>759</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>815</v>
-      </c>
       <c r="J13" s="53" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N13" s="58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P13" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q13" s="57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R13" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="S13" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="T13" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="U13" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="S13" s="59" t="s">
-        <v>775</v>
-      </c>
-      <c r="T13" s="61" t="s">
-        <v>777</v>
-      </c>
-      <c r="U13" s="62" t="s">
-        <v>765</v>
-      </c>
       <c r="V13" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W13" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X13" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y13" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z13" s="67" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA13" s="58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AB13" s="59" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AC13" s="56" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AD13" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AE13" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF13" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG13" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH13" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI13" s="68" t="s">
         <v>32</v>
@@ -12285,13 +12282,13 @@
         <v>32</v>
       </c>
       <c r="AK13" s="45" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AL13" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM13" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -12305,97 +12302,97 @@
         <v>26</v>
       </c>
       <c r="D14" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="K14" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="E14" s="52" t="s">
-        <v>749</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>760</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>743</v>
-      </c>
       <c r="L14" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M14" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P14" s="60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q14" s="57" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R14" s="58" t="s">
+        <v>764</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>653</v>
+      </c>
+      <c r="T14" s="61" t="s">
+        <v>641</v>
+      </c>
+      <c r="U14" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="S14" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="T14" s="61" t="s">
-        <v>642</v>
-      </c>
-      <c r="U14" s="62" t="s">
-        <v>766</v>
-      </c>
       <c r="V14" s="63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W14" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X14" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y14" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="X14" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y14" s="66" t="s">
-        <v>524</v>
-      </c>
       <c r="Z14" s="67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AA14" s="58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AB14" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AC14" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AD14" s="49" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AE14" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF14" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG14" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH14" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI14" s="68" t="s">
         <v>32</v>
@@ -12404,13 +12401,13 @@
         <v>32</v>
       </c>
       <c r="AK14" s="45" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AL14" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM14" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -12421,97 +12418,97 @@
         <v>26</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="K15" s="54" t="s">
         <v>745</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>746</v>
-      </c>
       <c r="L15" s="55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M15" s="57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N15" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O15" s="59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P15" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q15" s="57" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S15" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="T15" s="61" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U15" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V15" s="63" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W15" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X15" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y15" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z15" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA15" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AB15" s="59" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AC15" s="56" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AD15" s="49" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AE15" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF15" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG15" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH15" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI15" s="68" t="s">
         <v>32</v>
@@ -12520,13 +12517,13 @@
         <v>32</v>
       </c>
       <c r="AK15" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL15" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM15" s="69" t="s">
         <v>527</v>
-      </c>
-      <c r="AL15" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM15" s="69" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -12537,97 +12534,97 @@
         <v>26</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I16" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="J16" s="53" t="s">
-        <v>601</v>
-      </c>
       <c r="K16" s="54" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L16" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="M16" s="57" t="s">
         <v>691</v>
       </c>
-      <c r="M16" s="57" t="s">
-        <v>692</v>
-      </c>
       <c r="N16" s="58" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P16" s="60" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q16" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="R16" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="R16" s="58" t="s">
-        <v>647</v>
-      </c>
       <c r="S16" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T16" s="61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U16" s="62" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="V16" s="63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W16" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X16" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y16" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z16" s="67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AA16" s="58" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AB16" s="59" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC16" s="56" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AD16" s="49" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AE16" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF16" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG16" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH16" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI16" s="68" t="s">
         <v>32</v>
@@ -12636,13 +12633,13 @@
         <v>32</v>
       </c>
       <c r="AK16" s="45" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AL16" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM16" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="2:39" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -12653,97 +12650,97 @@
         <v>519</v>
       </c>
       <c r="D17" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>746</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="H17" s="53" t="s">
         <v>754</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="I17" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="J17" s="53" t="s">
         <v>755</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>817</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>756</v>
-      </c>
       <c r="K17" s="54" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M17" s="57" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N17" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P17" s="60" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q17" s="57" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R17" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S17" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U17" s="62" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V17" s="63" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="W17" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X17" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y17" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="X17" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y17" s="66" t="s">
-        <v>524</v>
-      </c>
       <c r="Z17" s="67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AA17" s="58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB17" s="59" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AC17" s="56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AD17" s="49" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AE17" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG17" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH17" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI17" s="68" t="s">
         <v>32</v>
@@ -12752,13 +12749,13 @@
         <v>32</v>
       </c>
       <c r="AK17" s="45" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AL17" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM17" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:39" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -12766,100 +12763,100 @@
         <v>11</v>
       </c>
       <c r="C18" s="109" t="s">
+        <v>756</v>
+      </c>
+      <c r="D18" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="E18" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="H18" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>748</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G18" s="45" t="s">
+      <c r="I18" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="H18" s="53" t="s">
-        <v>759</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>815</v>
-      </c>
       <c r="J18" s="53" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M18" s="57" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N18" s="58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="O18" s="59" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P18" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q18" s="57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R18" s="58" t="s">
+        <v>763</v>
+      </c>
+      <c r="S18" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="U18" s="62" t="s">
         <v>764</v>
       </c>
-      <c r="S18" s="59" t="s">
-        <v>775</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>777</v>
-      </c>
-      <c r="U18" s="62" t="s">
-        <v>765</v>
-      </c>
       <c r="V18" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="W18" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X18" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y18" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z18" s="67" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA18" s="58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AB18" s="59" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AC18" s="56" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AD18" s="49" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AE18" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF18" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG18" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH18" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI18" s="68" t="s">
         <v>32</v>
@@ -12868,13 +12865,13 @@
         <v>32</v>
       </c>
       <c r="AK18" s="45" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AL18" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM18" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="2:39" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -12885,97 +12882,97 @@
         <v>26</v>
       </c>
       <c r="D19" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="K19" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="E19" s="52" t="s">
-        <v>749</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>599</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>605</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>760</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>743</v>
-      </c>
       <c r="L19" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M19" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="N19" s="58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P19" s="60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q19" s="57" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R19" s="58" t="s">
+        <v>764</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>653</v>
+      </c>
+      <c r="T19" s="61" t="s">
+        <v>641</v>
+      </c>
+      <c r="U19" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="S19" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="T19" s="61" t="s">
-        <v>642</v>
-      </c>
-      <c r="U19" s="62" t="s">
-        <v>766</v>
-      </c>
       <c r="V19" s="63" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W19" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X19" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y19" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="X19" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y19" s="66" t="s">
-        <v>524</v>
-      </c>
       <c r="Z19" s="67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AA19" s="58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AB19" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AC19" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AD19" s="49" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AE19" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF19" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG19" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH19" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI19" s="68" t="s">
         <v>32</v>
@@ -12984,13 +12981,13 @@
         <v>32</v>
       </c>
       <c r="AK19" s="45" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AL19" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM19" s="69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="2:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -13001,97 +12998,97 @@
         <v>26</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="K20" s="54" t="s">
         <v>745</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>601</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>746</v>
-      </c>
       <c r="L20" s="55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M20" s="57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="N20" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O20" s="59" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P20" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q20" s="57" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R20" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S20" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="T20" s="61" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U20" s="62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="V20" s="63" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="W20" s="64" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="X20" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Y20" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z20" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA20" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AB20" s="59" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AC20" s="56" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AD20" s="49" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AE20" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF20" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG20" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH20" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AI20" s="68" t="s">
         <v>32</v>
@@ -13100,13 +13097,13 @@
         <v>32</v>
       </c>
       <c r="AK20" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL20" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM20" s="69" t="s">
         <v>527</v>
-      </c>
-      <c r="AL20" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM20" s="69" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -13252,34 +13249,34 @@
         <v>194</v>
       </c>
       <c r="S2" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="T2" s="80" t="s">
         <v>549</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="V2" s="80" t="s">
         <v>551</v>
       </c>
-      <c r="V2" s="80" t="s">
+      <c r="W2" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="X2" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="X2" s="80" t="s">
+      <c r="Y2" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="Y2" s="80" t="s">
+      <c r="Z2" s="80" t="s">
         <v>555</v>
       </c>
-      <c r="Z2" s="80" t="s">
+      <c r="AA2" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="AA2" s="80" t="s">
+      <c r="AB2" s="80" t="s">
         <v>557</v>
-      </c>
-      <c r="AB2" s="80" t="s">
-        <v>558</v>
       </c>
       <c r="AC2" s="80" t="s">
         <v>195</v>
@@ -13758,7 +13755,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="389" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C6" s="390"/>
       <c r="D6" s="390"/>
@@ -13772,49 +13769,49 @@
         <v>0</v>
       </c>
       <c r="C7" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>545</v>
-      </c>
       <c r="Q7" s="86" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13825,31 +13822,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="223" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" s="221" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" s="248" t="s">
         <v>571</v>
-      </c>
-      <c r="D8" s="221" t="s">
-        <v>546</v>
-      </c>
-      <c r="E8" s="248" t="s">
-        <v>572</v>
       </c>
       <c r="F8" s="245" t="s">
         <v>521</v>
       </c>
       <c r="G8" s="249" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H8" s="248" t="s">
         <v>85</v>
       </c>
       <c r="I8" s="248" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J8" s="248" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K8" s="245" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L8" s="219" t="s">
         <v>266</v>
@@ -13858,16 +13855,16 @@
         <v>2000</v>
       </c>
       <c r="N8" s="251" t="s">
+        <v>678</v>
+      </c>
+      <c r="O8" s="251" t="s">
         <v>679</v>
       </c>
-      <c r="O8" s="251" t="s">
-        <v>680</v>
-      </c>
       <c r="P8" s="252" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q8" s="253" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13878,31 +13875,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="513" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" s="514" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="515" t="s">
         <v>614</v>
       </c>
-      <c r="D9" s="514" t="s">
-        <v>546</v>
-      </c>
-      <c r="E9" s="515" t="s">
+      <c r="F9" s="508" t="s">
+        <v>700</v>
+      </c>
+      <c r="G9" s="516" t="s">
         <v>615</v>
-      </c>
-      <c r="F9" s="508" t="s">
-        <v>701</v>
-      </c>
-      <c r="G9" s="516" t="s">
-        <v>616</v>
       </c>
       <c r="H9" s="515" t="s">
         <v>85</v>
       </c>
       <c r="I9" s="515" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J9" s="515" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K9" s="508" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L9" s="517" t="s">
         <v>345</v>
@@ -13911,16 +13908,16 @@
         <v>2025</v>
       </c>
       <c r="N9" s="519" t="s">
+        <v>658</v>
+      </c>
+      <c r="O9" s="519" t="s">
         <v>659</v>
       </c>
-      <c r="O9" s="519" t="s">
+      <c r="P9" s="520" t="s">
         <v>660</v>
       </c>
-      <c r="P9" s="520" t="s">
-        <v>661</v>
-      </c>
       <c r="Q9" s="521" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13931,31 +13928,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="309" t="s">
+        <v>707</v>
+      </c>
+      <c r="G10" s="311" t="s">
         <v>619</v>
-      </c>
-      <c r="F10" s="309" t="s">
-        <v>708</v>
-      </c>
-      <c r="G10" s="311" t="s">
-        <v>620</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K10" s="309" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>345</v>
@@ -13964,16 +13961,16 @@
         <v>202</v>
       </c>
       <c r="N10" s="313" t="s">
+        <v>661</v>
+      </c>
+      <c r="O10" s="313" t="s">
         <v>662</v>
       </c>
-      <c r="O10" s="313" t="s">
+      <c r="P10" s="314" t="s">
         <v>663</v>
       </c>
-      <c r="P10" s="314" t="s">
-        <v>664</v>
-      </c>
       <c r="Q10" s="315" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13984,31 +13981,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="542" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="606" t="s">
+        <v>545</v>
+      </c>
+      <c r="E11" s="607" t="s">
         <v>622</v>
       </c>
-      <c r="D11" s="606" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" s="607" t="s">
+      <c r="F11" s="603" t="s">
+        <v>673</v>
+      </c>
+      <c r="G11" s="608" t="s">
         <v>623</v>
-      </c>
-      <c r="F11" s="603" t="s">
-        <v>674</v>
-      </c>
-      <c r="G11" s="608" t="s">
-        <v>624</v>
       </c>
       <c r="H11" s="607" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="607" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J11" s="607" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K11" s="603" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L11" s="562" t="s">
         <v>266</v>
@@ -14017,16 +14014,16 @@
         <v>540</v>
       </c>
       <c r="N11" s="610" t="s">
+        <v>664</v>
+      </c>
+      <c r="O11" s="610" t="s">
         <v>665</v>
       </c>
-      <c r="O11" s="610" t="s">
+      <c r="P11" s="611" t="s">
         <v>666</v>
       </c>
-      <c r="P11" s="611" t="s">
-        <v>667</v>
-      </c>
       <c r="Q11" s="612" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14037,31 +14034,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>546</v>
-      </c>
-      <c r="E12" s="73" t="s">
+      <c r="F12" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="G12" s="74" t="s">
         <v>627</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>628</v>
       </c>
       <c r="H12" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K12" s="49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L12" s="43" t="s">
         <v>270</v>
@@ -14070,16 +14067,16 @@
         <v>98.257999999999996</v>
       </c>
       <c r="N12" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O12" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O12" s="111" t="s">
+      <c r="P12" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P12" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q12" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:180" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -14090,31 +14087,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="76" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="73" t="s">
         <v>630</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>546</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>631</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>521</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L13" s="43" t="s">
         <v>270</v>
@@ -14123,16 +14120,16 @@
         <v>589.12</v>
       </c>
       <c r="N13" s="111" t="s">
+        <v>670</v>
+      </c>
+      <c r="O13" s="111" t="s">
         <v>671</v>
       </c>
-      <c r="O13" s="111" t="s">
+      <c r="P13" s="112" t="s">
         <v>672</v>
       </c>
-      <c r="P13" s="112" t="s">
-        <v>673</v>
-      </c>
       <c r="Q13" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:180" x14ac:dyDescent="0.3">
@@ -14140,31 +14137,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="76" t="s">
+        <v>795</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>796</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>546</v>
-      </c>
-      <c r="E14" s="73" t="s">
+      <c r="F14" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="G14" s="74" t="s">
         <v>798</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>799</v>
       </c>
       <c r="H14" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L14" s="43" t="s">
         <v>270</v>
@@ -14173,16 +14170,16 @@
         <v>1079.982</v>
       </c>
       <c r="N14" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O14" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O14" s="111" t="s">
+      <c r="P14" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P14" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q14" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:180" x14ac:dyDescent="0.3">
@@ -14190,31 +14187,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="76" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>801</v>
       </c>
-      <c r="D15" s="72" t="s">
-        <v>546</v>
-      </c>
-      <c r="E15" s="73" t="s">
+      <c r="F15" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="G15" s="74" t="s">
         <v>803</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>804</v>
       </c>
       <c r="H15" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J15" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>805</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>806</v>
       </c>
       <c r="L15" s="43" t="s">
         <v>270</v>
@@ -14223,16 +14220,16 @@
         <v>1080.982</v>
       </c>
       <c r="N15" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O15" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="P15" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P15" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q15" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:180" x14ac:dyDescent="0.3">
@@ -14240,31 +14237,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E16" s="73" t="s">
+        <v>622</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="G16" s="74" t="s">
         <v>623</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>674</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>624</v>
       </c>
       <c r="H16" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L16" s="43" t="s">
         <v>266</v>
@@ -14273,16 +14270,16 @@
         <v>540</v>
       </c>
       <c r="N16" s="111" t="s">
+        <v>664</v>
+      </c>
+      <c r="O16" s="111" t="s">
         <v>665</v>
       </c>
-      <c r="O16" s="111" t="s">
+      <c r="P16" s="112" t="s">
         <v>666</v>
       </c>
-      <c r="P16" s="112" t="s">
-        <v>667</v>
-      </c>
       <c r="Q16" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -14290,31 +14287,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E17" s="73" t="s">
+        <v>626</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="G17" s="74" t="s">
         <v>627</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>675</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>628</v>
       </c>
       <c r="H17" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L17" s="43" t="s">
         <v>270</v>
@@ -14323,16 +14320,16 @@
         <v>98.257999999999996</v>
       </c>
       <c r="N17" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O17" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="P17" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P17" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q17" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
@@ -14340,31 +14337,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>521</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H18" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J18" s="73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K18" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L18" s="43" t="s">
         <v>270</v>
@@ -14373,16 +14370,16 @@
         <v>589.12</v>
       </c>
       <c r="N18" s="111" t="s">
+        <v>670</v>
+      </c>
+      <c r="O18" s="111" t="s">
         <v>671</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="P18" s="112" t="s">
         <v>672</v>
       </c>
-      <c r="P18" s="112" t="s">
-        <v>673</v>
-      </c>
       <c r="Q18" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
@@ -14390,31 +14387,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E19" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="G19" s="74" t="s">
         <v>798</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>799</v>
       </c>
       <c r="H19" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L19" s="43" t="s">
         <v>270</v>
@@ -14423,16 +14420,16 @@
         <v>1079.982</v>
       </c>
       <c r="N19" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O19" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O19" s="111" t="s">
+      <c r="P19" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P19" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q19" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -14440,31 +14437,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E20" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="G20" s="74" t="s">
         <v>803</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>804</v>
       </c>
       <c r="H20" s="73" t="s">
         <v>85</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J20" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="K20" s="49" t="s">
         <v>805</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>806</v>
       </c>
       <c r="L20" s="43" t="s">
         <v>270</v>
@@ -14473,16 +14470,16 @@
         <v>1080.982</v>
       </c>
       <c r="N20" s="111" t="s">
+        <v>667</v>
+      </c>
+      <c r="O20" s="111" t="s">
         <v>668</v>
       </c>
-      <c r="O20" s="111" t="s">
+      <c r="P20" s="112" t="s">
         <v>669</v>
       </c>
-      <c r="P20" s="112" t="s">
-        <v>670</v>
-      </c>
       <c r="Q20" s="85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -14503,8 +14500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI134"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14618,34 +14615,34 @@
         <v>194</v>
       </c>
       <c r="AD2" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE2" s="80" t="s">
         <v>549</v>
       </c>
-      <c r="AE2" s="80" t="s">
+      <c r="AF2" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AG2" s="80" t="s">
         <v>551</v>
       </c>
-      <c r="AG2" s="80" t="s">
+      <c r="AH2" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="AH2" s="80" t="s">
+      <c r="AI2" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="AI2" s="80" t="s">
+      <c r="AJ2" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AK2" s="80" t="s">
         <v>555</v>
       </c>
-      <c r="AK2" s="80" t="s">
+      <c r="AL2" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AM2" s="80" t="s">
         <v>557</v>
-      </c>
-      <c r="AM2" s="80" t="s">
-        <v>558</v>
       </c>
       <c r="AN2" s="80" t="s">
         <v>195</v>
@@ -15224,7 +15221,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="247">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="256" t="s">
         <v>23</v>
@@ -15233,10 +15230,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="480" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F8" s="256" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G8" s="257" t="s">
         <v>7</v>
@@ -15245,7 +15242,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="256" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J8" s="481">
         <v>5.25</v>
@@ -15257,14 +15254,14 @@
         <v>266</v>
       </c>
       <c r="M8" s="718" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="N8" s="644"/>
       <c r="O8" s="260" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="483" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q8" s="254">
         <v>2.6</v>
@@ -15273,7 +15270,7 @@
         <v>270</v>
       </c>
       <c r="S8" s="274" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
@@ -15306,7 +15303,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="256" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J9" s="484">
         <v>5.25</v>
@@ -15318,14 +15315,14 @@
         <v>270</v>
       </c>
       <c r="M9" s="718" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="N9" s="645"/>
       <c r="O9" s="260" t="s">
         <v>21</v>
       </c>
       <c r="P9" s="483" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q9" s="259">
         <v>10.25</v>
@@ -15334,7 +15331,7 @@
         <v>345</v>
       </c>
       <c r="S9" s="274" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
@@ -15346,7 +15343,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="486">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" s="487" t="s">
         <v>29</v>
@@ -15367,7 +15364,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="256" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J10" s="488">
         <v>120.23</v>
@@ -15379,14 +15376,14 @@
         <v>266</v>
       </c>
       <c r="M10" s="719" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="N10" s="647"/>
       <c r="O10" s="623" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="483" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q10" s="490">
         <v>140.25</v>
@@ -15416,10 +15413,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="621" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F11" s="620" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G11" s="622" t="s">
         <v>7</v>
@@ -15440,14 +15437,14 @@
         <v>345</v>
       </c>
       <c r="M11" s="719" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="N11" s="647"/>
       <c r="O11" s="623" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="624" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q11" s="490">
         <v>120.9</v>
@@ -15508,7 +15505,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="544" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="545">
         <v>250</v>
@@ -15569,7 +15566,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="544" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q13" s="317">
         <v>4.4000000000000004</v>
@@ -15652,16 +15649,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="658" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D15" s="658" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="667" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F15" s="667" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G15" s="668" t="s">
         <v>7</v>
@@ -15670,7 +15667,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="658" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J15" s="670">
         <v>150.22999999999999</v>
@@ -15689,7 +15686,7 @@
         <v>21</v>
       </c>
       <c r="P15" s="658" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q15" s="676">
         <v>150</v>
@@ -15713,7 +15710,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D16" s="166" t="s">
         <v>32</v>
@@ -15731,7 +15728,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="632" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J16" s="167">
         <v>515.76</v>
@@ -15749,8 +15746,8 @@
       <c r="O16" s="613" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="722" t="s">
-        <v>1035</v>
+      <c r="P16" s="632" t="s">
+        <v>1032</v>
       </c>
       <c r="Q16" s="171">
         <v>415.69</v>
@@ -15774,7 +15771,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="166" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D17" s="166" t="s">
         <v>32</v>
@@ -15792,7 +15789,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="632" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J17" s="167">
         <v>85.23</v>
@@ -15811,7 +15808,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="722" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q17" s="167">
         <v>122.56</v>
@@ -15832,16 +15829,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="166" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D18" s="166" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="632" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F18" s="632" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G18" s="633" t="s">
         <v>7</v>
@@ -15850,7 +15847,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="632" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J18" s="167">
         <v>150.28</v>
@@ -15869,7 +15866,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="632" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q18" s="167">
         <v>25.3</v>
@@ -15908,7 +15905,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="716" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J19" s="169">
         <v>45.25</v>
@@ -15927,7 +15924,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="639" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q19" s="169">
         <v>251.09</v>
@@ -15948,7 +15945,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="166" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D20" s="166" t="s">
         <v>32</v>
@@ -15966,7 +15963,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="632" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J20" s="167">
         <v>913.12</v>
@@ -16004,16 +16001,16 @@
         <v>11</v>
       </c>
       <c r="C21" s="173" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D21" s="173" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="640" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F21" s="640" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G21" s="641" t="s">
         <v>7</v>
@@ -16022,7 +16019,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="173" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J21" s="174">
         <v>582</v>
@@ -16773,7 +16770,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17217,13 +17214,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="382" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="262" t="s">
         <v>147</v>
       </c>
       <c r="E8" s="248" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F8" s="218" t="s">
         <v>45</v>
@@ -17256,10 +17253,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="261">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="434" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="262" t="s">
         <v>148</v>
@@ -17301,7 +17298,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="523" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D10" s="524" t="s">
         <v>47</v>
@@ -17338,10 +17335,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="522">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" s="523" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D11" s="531" t="s">
         <v>50</v>
@@ -17381,7 +17378,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="383" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D12" s="318" t="s">
         <v>50</v>
@@ -17421,16 +17418,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="384" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D13" s="125" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="124" t="s">
+        <v>806</v>
+      </c>
+      <c r="F13" s="126" t="s">
         <v>807</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>808</v>
       </c>
       <c r="G13" s="127"/>
       <c r="H13" s="128">
@@ -17461,16 +17458,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="679" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D14" s="680" t="s">
         <v>152</v>
       </c>
       <c r="E14" s="681" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F14" s="682" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G14" s="683"/>
       <c r="H14" s="684">
@@ -17501,16 +17498,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="689" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D15" s="690" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="691" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F15" s="692" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G15" s="693"/>
       <c r="H15" s="694">
@@ -17541,16 +17538,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="385" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D16" s="141" t="s">
         <v>155</v>
       </c>
       <c r="E16" s="142" t="s">
+        <v>896</v>
+      </c>
+      <c r="F16" s="143" t="s">
         <v>897</v>
-      </c>
-      <c r="F16" s="143" t="s">
-        <v>898</v>
       </c>
       <c r="G16" s="144"/>
       <c r="H16" s="145">
@@ -17581,16 +17578,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="386" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>153</v>
       </c>
       <c r="E17" s="149" t="s">
+        <v>806</v>
+      </c>
+      <c r="F17" s="95" t="s">
         <v>807</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>808</v>
       </c>
       <c r="G17" s="150"/>
       <c r="H17" s="151">
@@ -17621,16 +17618,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="385" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="141" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="142" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F18" s="143" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G18" s="144"/>
       <c r="H18" s="145">
@@ -17661,16 +17658,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="386" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D19" s="138" t="s">
         <v>153</v>
       </c>
       <c r="E19" s="149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G19" s="150"/>
       <c r="H19" s="151">
@@ -17698,7 +17695,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="386" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D20" s="138" t="s">
         <v>148</v>
@@ -17735,7 +17732,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="387" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D21" s="133" t="s">
         <v>47</v>
@@ -17772,7 +17769,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="387" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="138" t="s">
         <v>50</v>
@@ -17809,7 +17806,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="388" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D23" s="155" t="s">
         <v>50</v>
@@ -17864,7 +17861,7 @@
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18031,10 +18028,10 @@
         <v>87</v>
       </c>
       <c r="E8" s="268" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F8" s="219" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G8" s="269" t="s">
         <v>80</v>
@@ -18075,7 +18072,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="275">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="222" t="s">
         <v>86</v>
@@ -18084,10 +18081,10 @@
         <v>87</v>
       </c>
       <c r="E9" s="268" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F9" s="219" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G9" s="269" t="s">
         <v>80</v>
@@ -18137,10 +18134,10 @@
         <v>87</v>
       </c>
       <c r="E10" s="535" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F10" s="517" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G10" s="536" t="s">
         <v>80</v>
@@ -18181,7 +18178,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="533">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" s="534" t="s">
         <v>78</v>
@@ -18193,7 +18190,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="517" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G11" s="536" t="s">
         <v>80</v>
@@ -18202,7 +18199,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="538" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J11" s="539">
         <v>2019</v>
@@ -18246,7 +18243,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="549" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G12" s="550" t="s">
         <v>80</v>
@@ -18296,10 +18293,10 @@
         <v>79</v>
       </c>
       <c r="E13" s="327" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F13" s="283" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G13" s="328" t="s">
         <v>80</v>
@@ -18308,7 +18305,7 @@
         <v>92</v>
       </c>
       <c r="I13" s="330" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J13" s="331">
         <v>2023</v>
@@ -18349,19 +18346,19 @@
         <v>79</v>
       </c>
       <c r="E14" s="699" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F14" s="574" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G14" s="700" t="s">
         <v>80</v>
       </c>
       <c r="H14" s="701" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I14" s="702" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J14" s="703">
         <v>2025</v>
@@ -18402,19 +18399,19 @@
         <v>79</v>
       </c>
       <c r="E15" s="706" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F15" s="562" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G15" s="707" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="708" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I15" s="709" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J15" s="710">
         <v>2027</v>
@@ -18458,16 +18455,16 @@
         <v>89</v>
       </c>
       <c r="F16" s="189" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G16" s="190" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="191" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I16" s="192" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J16" s="193">
         <v>2021</v>
@@ -18508,19 +18505,19 @@
         <v>79</v>
       </c>
       <c r="E17" s="196" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G17" s="197" t="s">
         <v>80</v>
       </c>
       <c r="H17" s="198" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I17" s="199" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J17" s="200">
         <v>2023</v>
@@ -18561,19 +18558,19 @@
         <v>79</v>
       </c>
       <c r="E18" s="196" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G18" s="197" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="198" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I18" s="199" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J18" s="200">
         <v>2025</v>
@@ -18614,19 +18611,19 @@
         <v>79</v>
       </c>
       <c r="E19" s="196" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G19" s="197" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="198" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I19" s="199" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J19" s="200">
         <v>2027</v>
@@ -18667,19 +18664,19 @@
         <v>87</v>
       </c>
       <c r="E20" s="196" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G20" s="197" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="198" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I20" s="199" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J20" s="200">
         <v>2015</v>
@@ -18720,19 +18717,19 @@
         <v>87</v>
       </c>
       <c r="E21" s="178" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G21" s="179" t="s">
         <v>80</v>
       </c>
       <c r="H21" s="180" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I21" s="181" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J21" s="182">
         <v>2010</v>
@@ -18770,25 +18767,25 @@
         <v>79</v>
       </c>
       <c r="E22" s="178" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G22" s="179" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="180" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I22" s="181" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J22" s="182">
         <v>2021</v>
       </c>
       <c r="K22" s="179" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L22" s="72" t="s">
         <v>83</v>
@@ -18820,19 +18817,19 @@
         <v>79</v>
       </c>
       <c r="E23" s="188" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F23" s="189" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G23" s="190" t="s">
         <v>80</v>
       </c>
       <c r="H23" s="191" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I23" s="192" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J23" s="193">
         <v>2021</v>
@@ -18870,25 +18867,25 @@
         <v>79</v>
       </c>
       <c r="E24" s="204" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F24" s="205" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G24" s="206" t="s">
         <v>80</v>
       </c>
       <c r="H24" s="207" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I24" s="208" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J24" s="209">
         <v>2023</v>
       </c>
       <c r="K24" s="206" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L24" s="203" t="s">
         <v>83</v>
